--- a/data/DATOSHORARIOS.xlsx
+++ b/data/DATOSHORARIOS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\morit\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\A\Documents\Python\Proyecto Innovacion (GITHUB)\Generador-de-horarios\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA6D60AA-3735-4487-A50B-431D9C803851}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{516AF977-3E1D-4646-BF5D-D2C23E003E62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-75" yWindow="-75" windowWidth="15510" windowHeight="11070" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Datos generales" sheetId="1" r:id="rId1"/>
@@ -23,17 +23,14 @@
     <sheet name="Restricciones" sheetId="11" r:id="rId8"/>
     <sheet name="ListaDesplegable" sheetId="12" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -41,22 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1043" uniqueCount="599">
-  <si>
-    <t xml:space="preserve">Cédula </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nombre completo </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Materias </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Días disponibles (Prioridad) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Días disponibles (Auxiliar) </t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1043" uniqueCount="596">
   <si>
     <t>Horario</t>
   </si>
@@ -82,9 +64,6 @@
     <t>Ana Sosa</t>
   </si>
   <si>
-    <t xml:space="preserve">José Villaroel </t>
-  </si>
-  <si>
     <t xml:space="preserve">William Mercado </t>
   </si>
   <si>
@@ -319,21 +298,12 @@
     <t>Código</t>
   </si>
   <si>
-    <t xml:space="preserve">Nombre </t>
-  </si>
-  <si>
     <t>Carrera</t>
   </si>
   <si>
     <t>UC</t>
   </si>
   <si>
-    <t xml:space="preserve">Horas semanales </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Modalidad </t>
-  </si>
-  <si>
     <t>Semestre</t>
   </si>
   <si>
@@ -349,9 +319,6 @@
     <t xml:space="preserve">Comprensión y expresión lingüística </t>
   </si>
   <si>
-    <t>Ing. Informática</t>
-  </si>
-  <si>
     <t xml:space="preserve">Presencial </t>
   </si>
   <si>
@@ -1144,24 +1111,6 @@
     <t>135</t>
   </si>
   <si>
-    <t xml:space="preserve">Código </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ID aula </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sede </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Módulo </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Capacidad </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tipo aula </t>
-  </si>
-  <si>
     <t xml:space="preserve">Atlántico </t>
   </si>
   <si>
@@ -1189,15 +1138,9 @@
     <t xml:space="preserve">Ingeniería informática </t>
   </si>
   <si>
-    <t xml:space="preserve">Licenciatura en turismo </t>
-  </si>
-  <si>
     <t xml:space="preserve">Villa Asia </t>
   </si>
   <si>
-    <t xml:space="preserve">Contaduría pública </t>
-  </si>
-  <si>
     <t>Relación</t>
   </si>
   <si>
@@ -1765,9 +1708,6 @@
     <t>V08360618</t>
   </si>
   <si>
-    <t xml:space="preserve">José Humberto Fuenmayor </t>
-  </si>
-  <si>
     <t>V17068084</t>
   </si>
   <si>
@@ -1795,9 +1735,6 @@
     <t>V09686662</t>
   </si>
   <si>
-    <t xml:space="preserve">Eoniste Mirabal </t>
-  </si>
-  <si>
     <t>V10198488</t>
   </si>
   <si>
@@ -1825,9 +1762,6 @@
     <t xml:space="preserve">Gerencia Social </t>
   </si>
   <si>
-    <t xml:space="preserve">Tipo materia </t>
-  </si>
-  <si>
     <t>Electiva</t>
   </si>
   <si>
@@ -1838,13 +1772,67 @@
   </si>
   <si>
     <t>Secciones asignadas</t>
+  </si>
+  <si>
+    <t>Nombre</t>
+  </si>
+  <si>
+    <t>Tipo materia</t>
+  </si>
+  <si>
+    <t>Horas semanales</t>
+  </si>
+  <si>
+    <t>Modalidad</t>
+  </si>
+  <si>
+    <t>ID aula</t>
+  </si>
+  <si>
+    <t>Sede</t>
+  </si>
+  <si>
+    <t>Módulo</t>
+  </si>
+  <si>
+    <t>Capacidad</t>
+  </si>
+  <si>
+    <t>Tipo aula</t>
+  </si>
+  <si>
+    <t>Cédula</t>
+  </si>
+  <si>
+    <t>Nombre completo</t>
+  </si>
+  <si>
+    <t>Materias</t>
+  </si>
+  <si>
+    <t>Días disponibles (Prioridad)</t>
+  </si>
+  <si>
+    <t>Días disponibles (Auxiliar)</t>
+  </si>
+  <si>
+    <t>Katiuska Viña</t>
+  </si>
+  <si>
+    <t>José Villaroel</t>
+  </si>
+  <si>
+    <t>Eoniste Mirabal</t>
+  </si>
+  <si>
+    <t>José Humberto Fuenmayor</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2098,6 +2086,72 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
     <mruColors>
       <color rgb="FFD1D1FF"/>
       <color rgb="FF9999FF"/>
@@ -2122,7 +2176,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="FEFEFE"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="0E2841"/>
@@ -2398,7 +2452,7 @@
       <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2408,2187 +2462,2187 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:H181"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
-      <selection activeCell="D84" sqref="D84"/>
+    <sheetView topLeftCell="A166" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
+      <selection activeCell="C173" sqref="C173"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="2" width="17.375" customWidth="1"/>
+    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="31.75" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="53.375" customWidth="1"/>
-    <col min="5" max="5" width="31.75" customWidth="1"/>
-    <col min="6" max="6" width="30" customWidth="1"/>
+    <col min="5" max="5" width="29.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28.625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.75" customWidth="1"/>
     <col min="9" max="9" width="29.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:8">
       <c r="B2" s="19" t="s">
+        <v>587</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>588</v>
+      </c>
+      <c r="D2" s="19" t="s">
+        <v>589</v>
+      </c>
+      <c r="E2" s="19" t="s">
+        <v>590</v>
+      </c>
+      <c r="F2" s="19" t="s">
+        <v>591</v>
+      </c>
+      <c r="G2" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="H2" s="20"/>
+    </row>
+    <row r="3" spans="2:8">
+      <c r="B3" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="19" t="s">
+      <c r="D3" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="23" t="s">
+      <c r="G3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="20"/>
-    </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B3" s="2" t="s">
-        <v>407</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="4" spans="2:8">
       <c r="B4" s="22" t="s">
-        <v>404</v>
+        <v>386</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>11</v>
+        <v>592</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:8">
       <c r="B5" s="2">
         <v>12650420</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:8">
       <c r="B6" s="2">
         <v>11375248</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>13</v>
+        <v>593</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:8">
       <c r="B7" s="2">
         <v>12893546</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:8">
       <c r="B8" s="2">
         <v>13215911</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:8">
       <c r="B9" s="2">
         <v>12645982</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:8">
       <c r="B10" s="2">
         <v>14089527</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:8">
       <c r="B11" s="2">
         <v>10944026</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:8">
       <c r="B12" s="2">
         <v>15034116</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:8">
       <c r="B13" s="2">
         <v>3943985</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
     </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:8">
       <c r="B14" s="2">
         <v>13620481</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
     </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:8">
       <c r="B15" s="2">
         <v>12052470</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
     </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:8">
       <c r="B16" s="2">
         <v>12649015</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:7">
       <c r="B17" s="2">
         <v>11898547</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:7">
       <c r="B18" s="2">
         <v>13335334</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:7">
       <c r="B19" s="2">
         <v>11513347</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:7">
       <c r="B20" s="2">
         <v>13782865</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:7">
       <c r="B21" s="2">
         <v>14344845</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:7">
       <c r="B22" s="2">
         <v>12360178</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:7">
       <c r="B23" s="2">
         <v>10928778</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:7">
       <c r="B24" s="2">
         <v>15919567</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:7">
       <c r="B25" s="2">
         <v>8924540</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:7">
       <c r="B26" s="2">
         <v>8911349</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:7">
       <c r="B27" s="2">
         <v>13761728</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D27" s="4"/>
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
       <c r="G27" s="2"/>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:7">
       <c r="B28" s="2">
         <v>8552550</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="D28" s="4"/>
       <c r="E28" s="4"/>
       <c r="F28" s="4"/>
       <c r="G28" s="2"/>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:7">
       <c r="B29" s="2">
         <v>10044274</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D29" s="4"/>
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>
       <c r="G29" s="2"/>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:7">
       <c r="B30" s="2">
         <v>11008283</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D30" s="4"/>
       <c r="E30" s="4"/>
       <c r="F30" s="4"/>
       <c r="G30" s="2"/>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:7">
       <c r="B31" s="2">
         <v>10550915</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D31" s="4"/>
       <c r="E31" s="4"/>
       <c r="F31" s="4"/>
       <c r="G31" s="2"/>
     </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:7">
       <c r="B32" s="2">
         <v>8551358</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D32" s="4"/>
       <c r="E32" s="4"/>
       <c r="F32" s="4"/>
       <c r="G32" s="2"/>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:7">
       <c r="B33" s="2">
         <v>18077052</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D33" s="4"/>
       <c r="E33" s="4"/>
       <c r="F33" s="4"/>
       <c r="G33" s="2"/>
     </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:7">
       <c r="B34" s="2">
         <v>11192118</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D34" s="4"/>
       <c r="E34" s="4"/>
       <c r="F34" s="4"/>
       <c r="G34" s="2"/>
     </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:7">
       <c r="B35" s="2">
         <v>15083359</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D35" s="4"/>
       <c r="E35" s="4"/>
       <c r="F35" s="4"/>
       <c r="G35" s="2"/>
     </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:7">
       <c r="B36" s="2">
         <v>14837331</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="D36" s="4"/>
       <c r="E36" s="4"/>
       <c r="F36" s="4"/>
       <c r="G36" s="2"/>
     </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:7">
       <c r="B37" s="2">
         <v>8938033</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="D37" s="4"/>
       <c r="E37" s="4"/>
       <c r="F37" s="4"/>
       <c r="G37" s="2"/>
     </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:7">
       <c r="B38" s="2">
         <v>16629335</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="D38" s="4"/>
       <c r="E38" s="4"/>
       <c r="F38" s="4"/>
       <c r="G38" s="2"/>
     </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="39" spans="2:7">
       <c r="B39" s="2">
         <v>11213386</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="D39" s="4"/>
       <c r="E39" s="4"/>
       <c r="F39" s="4"/>
       <c r="G39" s="2"/>
     </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="40" spans="2:7">
       <c r="B40" s="2">
         <v>4086270</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="D40" s="4"/>
       <c r="E40" s="4"/>
       <c r="F40" s="4"/>
       <c r="G40" s="2"/>
     </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="41" spans="2:7">
       <c r="B41" s="2">
         <v>9912625</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="D41" s="4"/>
       <c r="E41" s="4"/>
       <c r="F41" s="4"/>
       <c r="G41" s="2"/>
     </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="42" spans="2:7">
       <c r="B42" s="2">
         <v>11173754</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="D42" s="4"/>
       <c r="E42" s="4"/>
       <c r="F42" s="4"/>
       <c r="G42" s="2"/>
     </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="43" spans="2:7">
       <c r="B43" s="2">
         <v>10926122</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="D43" s="4"/>
       <c r="E43" s="4"/>
       <c r="F43" s="4"/>
       <c r="G43" s="2"/>
     </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="44" spans="2:7">
       <c r="B44" s="2">
         <v>9600949</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="D44" s="4"/>
       <c r="E44" s="4"/>
       <c r="F44" s="4"/>
       <c r="G44" s="2"/>
     </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="45" spans="2:7">
       <c r="B45" s="2">
         <v>10236782</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="D45" s="4"/>
       <c r="E45" s="4"/>
       <c r="F45" s="4"/>
       <c r="G45" s="2"/>
     </row>
-    <row r="46" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="46" spans="2:7">
       <c r="B46" s="2">
         <v>14119568</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="D46" s="4"/>
       <c r="E46" s="4"/>
       <c r="F46" s="4"/>
       <c r="G46" s="2"/>
     </row>
-    <row r="47" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="47" spans="2:7">
       <c r="B47" s="2">
         <v>14119709</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D47" s="4"/>
       <c r="E47" s="4"/>
       <c r="F47" s="4"/>
       <c r="G47" s="2"/>
     </row>
-    <row r="48" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="48" spans="2:7">
       <c r="B48" s="2">
         <v>12645254</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="D48" s="4"/>
       <c r="E48" s="4"/>
       <c r="F48" s="4"/>
       <c r="G48" s="2"/>
     </row>
-    <row r="49" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="49" spans="2:7">
       <c r="B49" s="2">
         <v>13807175</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="D49" s="4"/>
       <c r="E49" s="4"/>
       <c r="F49" s="4"/>
       <c r="G49" s="2"/>
     </row>
-    <row r="50" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="50" spans="2:7">
       <c r="B50" s="2">
         <v>12133000</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="D50" s="4"/>
       <c r="E50" s="4"/>
       <c r="F50" s="4"/>
       <c r="G50" s="2"/>
     </row>
-    <row r="51" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="51" spans="2:7">
       <c r="B51" s="2">
         <v>4498264</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="D51" s="4"/>
       <c r="E51" s="4"/>
       <c r="F51" s="4"/>
       <c r="G51" s="2"/>
     </row>
-    <row r="52" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="52" spans="2:7">
       <c r="B52" s="2">
         <v>10925752</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="D52" s="4"/>
       <c r="E52" s="4"/>
       <c r="F52" s="4"/>
       <c r="G52" s="2"/>
     </row>
-    <row r="53" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="53" spans="2:7">
       <c r="B53" s="2">
         <v>8367632</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="D53" s="4"/>
       <c r="E53" s="4"/>
       <c r="F53" s="4"/>
       <c r="G53" s="2"/>
     </row>
-    <row r="54" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="54" spans="2:7">
       <c r="B54" s="2">
         <v>4938243</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="D54" s="4"/>
       <c r="E54" s="4"/>
       <c r="F54" s="4"/>
       <c r="G54" s="2"/>
     </row>
-    <row r="55" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="55" spans="2:7">
       <c r="B55" s="2">
         <v>13647035</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="D55" s="4"/>
       <c r="E55" s="4"/>
       <c r="F55" s="4"/>
       <c r="G55" s="2"/>
     </row>
-    <row r="56" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="56" spans="2:7">
       <c r="B56" s="2">
         <v>13911537</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="D56" s="4"/>
       <c r="E56" s="4"/>
       <c r="F56" s="4"/>
       <c r="G56" s="2"/>
     </row>
-    <row r="57" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="57" spans="2:7">
       <c r="B57" s="2">
         <v>14118068</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="D57" s="4"/>
       <c r="E57" s="4"/>
       <c r="F57" s="4"/>
       <c r="G57" s="2"/>
     </row>
-    <row r="58" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="58" spans="2:7">
       <c r="B58" s="2">
         <v>12006961</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="D58" s="4"/>
       <c r="E58" s="4"/>
       <c r="F58" s="4"/>
       <c r="G58" s="2"/>
     </row>
-    <row r="59" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="59" spans="2:7">
       <c r="B59" s="2">
         <v>13202828</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>413</v>
+        <v>395</v>
       </c>
       <c r="D59" s="4"/>
       <c r="E59" s="4"/>
       <c r="F59" s="4"/>
       <c r="G59" s="2"/>
     </row>
-    <row r="60" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="60" spans="2:7">
       <c r="B60" s="2">
         <v>8916133</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="D60" s="4"/>
       <c r="E60" s="4"/>
       <c r="F60" s="4"/>
       <c r="G60" s="2"/>
     </row>
-    <row r="61" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="61" spans="2:7">
       <c r="B61" s="2">
         <v>13798915</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>414</v>
+        <v>396</v>
       </c>
       <c r="D61" s="4"/>
       <c r="E61" s="4"/>
       <c r="F61" s="4"/>
       <c r="G61" s="2"/>
     </row>
-    <row r="62" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="62" spans="2:7">
       <c r="B62" s="2">
         <v>13443243</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="D62" s="4"/>
       <c r="E62" s="4"/>
       <c r="F62" s="4"/>
       <c r="G62" s="2"/>
     </row>
-    <row r="63" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="63" spans="2:7">
       <c r="B63" s="2">
         <v>14403031</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="D63" s="4"/>
       <c r="E63" s="4"/>
       <c r="F63" s="4"/>
       <c r="G63" s="2"/>
     </row>
-    <row r="64" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="64" spans="2:7">
       <c r="B64" s="2">
         <v>8964069</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>415</v>
+        <v>397</v>
       </c>
       <c r="D64" s="4"/>
       <c r="E64" s="4"/>
       <c r="F64" s="4"/>
       <c r="G64" s="2"/>
     </row>
-    <row r="65" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="65" spans="2:7">
       <c r="B65" s="2">
         <v>13090589</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="D65" s="4"/>
       <c r="E65" s="4"/>
       <c r="F65" s="4"/>
       <c r="G65" s="2"/>
     </row>
-    <row r="66" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="66" spans="2:7">
       <c r="B66" s="2">
         <v>12191090</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="D66" s="4"/>
       <c r="E66" s="4"/>
       <c r="F66" s="4"/>
       <c r="G66" s="2"/>
     </row>
-    <row r="67" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="67" spans="2:7">
       <c r="B67" s="2">
         <v>25393492</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="D67" s="4"/>
       <c r="E67" s="4"/>
       <c r="F67" s="4"/>
       <c r="G67" s="2"/>
     </row>
-    <row r="68" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="68" spans="2:7">
       <c r="B68" s="2">
         <v>10569416</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="D68" s="4"/>
       <c r="E68" s="4"/>
       <c r="F68" s="4"/>
       <c r="G68" s="2"/>
     </row>
-    <row r="69" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="69" spans="2:7">
       <c r="B69" s="2">
         <v>8943969</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="D69" s="4"/>
       <c r="E69" s="4"/>
       <c r="F69" s="4"/>
       <c r="G69" s="2"/>
     </row>
-    <row r="70" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="70" spans="2:7">
       <c r="B70" s="2">
         <v>12753182</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="D70" s="4"/>
       <c r="E70" s="4"/>
       <c r="F70" s="4"/>
       <c r="G70" s="2"/>
     </row>
-    <row r="71" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="71" spans="2:7">
       <c r="B71" s="2">
         <v>11511130</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="D71" s="4"/>
       <c r="E71" s="4"/>
       <c r="F71" s="4"/>
       <c r="G71" s="2"/>
     </row>
-    <row r="72" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="72" spans="2:7">
       <c r="B72" s="2">
         <v>15186175</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="D72" s="4"/>
       <c r="E72" s="4"/>
       <c r="F72" s="4"/>
       <c r="G72" s="2"/>
     </row>
-    <row r="73" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="73" spans="2:7">
       <c r="B73" s="2">
         <v>12187976</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="D73" s="4"/>
       <c r="E73" s="4"/>
       <c r="F73" s="4"/>
       <c r="G73" s="2"/>
     </row>
-    <row r="74" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="74" spans="2:7">
       <c r="B74" s="2">
         <v>15174478</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="D74" s="4"/>
       <c r="E74" s="4"/>
       <c r="F74" s="4"/>
       <c r="G74" s="2"/>
     </row>
-    <row r="75" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="75" spans="2:7">
       <c r="B75" s="2">
         <v>13132431</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="D75" s="4"/>
       <c r="E75" s="4"/>
       <c r="F75" s="4"/>
       <c r="G75" s="2"/>
     </row>
-    <row r="76" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="76" spans="2:7">
       <c r="B76" s="2">
         <v>17633089</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="D76" s="4"/>
       <c r="E76" s="4"/>
       <c r="F76" s="4"/>
       <c r="G76" s="2"/>
     </row>
-    <row r="77" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="77" spans="2:7">
       <c r="B77" s="2">
         <v>12291120</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="D77" s="4"/>
       <c r="E77" s="4"/>
       <c r="F77" s="4"/>
       <c r="G77" s="2"/>
     </row>
-    <row r="78" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="78" spans="2:7">
       <c r="B78" s="2">
         <v>4186804</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="D78" s="4"/>
       <c r="E78" s="4"/>
       <c r="F78" s="4"/>
       <c r="G78" s="2"/>
     </row>
-    <row r="79" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="79" spans="2:7">
       <c r="B79" s="2">
         <v>11008285</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="D79" s="4"/>
       <c r="E79" s="4"/>
       <c r="F79" s="4"/>
       <c r="G79" s="2"/>
     </row>
-    <row r="80" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="80" spans="2:7">
       <c r="B80" s="2">
         <v>22824279</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="D80" s="4"/>
       <c r="E80" s="4"/>
       <c r="F80" s="4"/>
       <c r="G80" s="2"/>
     </row>
-    <row r="81" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="81" spans="2:7">
       <c r="B81" s="2">
         <v>9820726</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="D81" s="4"/>
       <c r="E81" s="4"/>
       <c r="F81" s="4"/>
       <c r="G81" s="2"/>
     </row>
-    <row r="82" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="82" spans="2:7">
       <c r="B82" s="2">
         <v>12891739</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="D82" s="4"/>
       <c r="E82" s="4"/>
       <c r="F82" s="4"/>
       <c r="G82" s="2"/>
     </row>
-    <row r="83" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="83" spans="2:7">
       <c r="B83" s="2">
         <v>5521766</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="D83" s="4"/>
       <c r="E83" s="4"/>
       <c r="F83" s="4"/>
       <c r="G83" s="2"/>
     </row>
-    <row r="84" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="84" spans="2:7">
       <c r="B84" s="2">
         <v>11168694</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="D84" s="4"/>
       <c r="E84" s="4"/>
       <c r="F84" s="4"/>
       <c r="G84" s="2"/>
     </row>
-    <row r="85" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="85" spans="2:7">
       <c r="B85" s="2">
         <v>12132123</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="D85" s="4"/>
       <c r="E85" s="4"/>
       <c r="F85" s="4"/>
       <c r="G85" s="2"/>
     </row>
-    <row r="86" spans="2:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="2:7" ht="14.25" thickBot="1">
       <c r="B86" s="26">
         <v>14969511</v>
       </c>
       <c r="C86" s="26" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="D86" s="27"/>
       <c r="E86" s="27"/>
       <c r="F86" s="27"/>
       <c r="G86" s="26"/>
     </row>
-    <row r="87" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="87" spans="2:7">
       <c r="B87" s="25">
         <v>10392063</v>
       </c>
       <c r="C87" s="25" t="s">
-        <v>416</v>
+        <v>398</v>
       </c>
       <c r="D87" s="24"/>
       <c r="E87" s="24"/>
       <c r="F87" s="24"/>
       <c r="G87" s="25"/>
     </row>
-    <row r="88" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="88" spans="2:7">
       <c r="B88" s="2" t="s">
-        <v>436</v>
+        <v>418</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>437</v>
+        <v>419</v>
       </c>
       <c r="D88" s="4"/>
       <c r="E88" s="4"/>
       <c r="F88" s="4"/>
       <c r="G88" s="2"/>
     </row>
-    <row r="89" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="89" spans="2:7">
       <c r="B89" s="2" t="s">
-        <v>435</v>
+        <v>417</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="D89" s="4"/>
       <c r="E89" s="4"/>
       <c r="F89" s="4"/>
       <c r="G89" s="2"/>
     </row>
-    <row r="90" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="90" spans="2:7">
       <c r="B90" s="18" t="s">
-        <v>408</v>
+        <v>390</v>
       </c>
       <c r="C90" s="18" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D90" s="4"/>
       <c r="E90" s="4"/>
       <c r="F90" s="4"/>
       <c r="G90" s="2"/>
     </row>
-    <row r="91" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="91" spans="2:7">
       <c r="B91" s="2" t="s">
-        <v>419</v>
+        <v>401</v>
       </c>
       <c r="C91" s="22" t="s">
-        <v>439</v>
+        <v>421</v>
       </c>
       <c r="D91" s="4"/>
       <c r="E91" s="4"/>
       <c r="F91" s="4"/>
       <c r="G91" s="2"/>
     </row>
-    <row r="92" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="92" spans="2:7">
       <c r="B92" s="2" t="s">
-        <v>420</v>
+        <v>402</v>
       </c>
       <c r="C92" s="22" t="s">
-        <v>421</v>
+        <v>403</v>
       </c>
       <c r="D92" s="4"/>
       <c r="E92" s="4"/>
       <c r="F92" s="4"/>
       <c r="G92" s="2"/>
     </row>
-    <row r="93" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="93" spans="2:7">
       <c r="B93" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="C93" s="22" t="s">
         <v>422</v>
-      </c>
-      <c r="C93" s="22" t="s">
-        <v>440</v>
       </c>
       <c r="D93" s="4"/>
       <c r="E93" s="4"/>
       <c r="F93" s="4"/>
       <c r="G93" s="2"/>
     </row>
-    <row r="94" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="94" spans="2:7">
       <c r="B94" s="18" t="s">
-        <v>412</v>
+        <v>394</v>
       </c>
       <c r="C94" s="18" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="D94" s="4"/>
       <c r="E94" s="4"/>
       <c r="F94" s="4"/>
       <c r="G94" s="2"/>
     </row>
-    <row r="95" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="95" spans="2:7">
       <c r="B95" s="2" t="s">
-        <v>426</v>
+        <v>408</v>
       </c>
       <c r="C95" s="22" t="s">
-        <v>425</v>
+        <v>407</v>
       </c>
       <c r="D95" s="4"/>
       <c r="E95" s="4"/>
       <c r="F95" s="4"/>
       <c r="G95" s="2"/>
     </row>
-    <row r="96" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="96" spans="2:7">
       <c r="B96" s="2" t="s">
-        <v>427</v>
+        <v>409</v>
       </c>
       <c r="C96" s="22" t="s">
-        <v>428</v>
+        <v>410</v>
       </c>
       <c r="D96" s="4"/>
       <c r="E96" s="4"/>
       <c r="F96" s="4"/>
       <c r="G96" s="2"/>
     </row>
-    <row r="97" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="97" spans="2:7">
       <c r="B97" s="2" t="s">
-        <v>441</v>
+        <v>423</v>
       </c>
       <c r="C97" s="22" t="s">
-        <v>442</v>
+        <v>424</v>
       </c>
       <c r="D97" s="4"/>
       <c r="E97" s="4"/>
       <c r="F97" s="4"/>
       <c r="G97" s="2"/>
     </row>
-    <row r="98" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="98" spans="2:7">
       <c r="B98" s="2" t="s">
-        <v>443</v>
+        <v>425</v>
       </c>
       <c r="C98" s="22" t="s">
-        <v>444</v>
+        <v>426</v>
       </c>
       <c r="D98" s="4"/>
       <c r="E98" s="4"/>
       <c r="F98" s="4"/>
       <c r="G98" s="2"/>
     </row>
-    <row r="99" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="99" spans="2:7">
       <c r="B99" s="2" t="s">
-        <v>445</v>
+        <v>427</v>
       </c>
       <c r="C99" s="22" t="s">
-        <v>446</v>
+        <v>428</v>
       </c>
       <c r="D99" s="4"/>
       <c r="E99" s="4"/>
       <c r="F99" s="4"/>
       <c r="G99" s="2"/>
     </row>
-    <row r="100" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="100" spans="2:7">
       <c r="B100" s="2" t="s">
-        <v>431</v>
+        <v>413</v>
       </c>
       <c r="C100" s="22" t="s">
-        <v>432</v>
+        <v>414</v>
       </c>
       <c r="D100" s="4"/>
       <c r="E100" s="4"/>
       <c r="F100" s="4"/>
       <c r="G100" s="2"/>
     </row>
-    <row r="101" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="101" spans="2:7">
       <c r="B101" s="2" t="s">
-        <v>447</v>
+        <v>429</v>
       </c>
       <c r="C101" s="22" t="s">
-        <v>448</v>
+        <v>430</v>
       </c>
       <c r="D101" s="4"/>
       <c r="E101" s="4"/>
       <c r="F101" s="4"/>
       <c r="G101" s="2"/>
     </row>
-    <row r="102" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="102" spans="2:7">
       <c r="B102" s="2" t="s">
-        <v>433</v>
+        <v>415</v>
       </c>
       <c r="C102" s="22" t="s">
-        <v>434</v>
+        <v>416</v>
       </c>
       <c r="D102" s="4"/>
       <c r="E102" s="4"/>
       <c r="F102" s="4"/>
       <c r="G102" s="2"/>
     </row>
-    <row r="103" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="103" spans="2:7">
       <c r="B103" s="18" t="s">
-        <v>409</v>
+        <v>391</v>
       </c>
       <c r="C103" s="18" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D103" s="4"/>
       <c r="E103" s="4"/>
       <c r="F103" s="4"/>
       <c r="G103" s="2"/>
     </row>
-    <row r="104" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="104" spans="2:7">
       <c r="B104" s="2" t="s">
-        <v>449</v>
+        <v>431</v>
       </c>
       <c r="C104" s="22" t="s">
-        <v>450</v>
+        <v>432</v>
       </c>
       <c r="D104" s="4"/>
       <c r="E104" s="4"/>
       <c r="F104" s="4"/>
       <c r="G104" s="2"/>
     </row>
-    <row r="105" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="105" spans="2:7">
       <c r="B105" s="2" t="s">
-        <v>451</v>
+        <v>433</v>
       </c>
       <c r="C105" s="22" t="s">
-        <v>452</v>
+        <v>434</v>
       </c>
       <c r="D105" s="4"/>
       <c r="E105" s="4"/>
       <c r="F105" s="4"/>
       <c r="G105" s="2"/>
     </row>
-    <row r="106" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="106" spans="2:7">
       <c r="B106" s="2" t="s">
-        <v>453</v>
+        <v>435</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>454</v>
+        <v>436</v>
       </c>
       <c r="D106" s="4"/>
       <c r="E106" s="4"/>
       <c r="F106" s="4"/>
       <c r="G106" s="2"/>
     </row>
-    <row r="107" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="107" spans="2:7">
       <c r="B107" s="2" t="s">
-        <v>456</v>
+        <v>438</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>455</v>
+        <v>437</v>
       </c>
       <c r="D107" s="4"/>
       <c r="E107" s="4"/>
       <c r="F107" s="4"/>
       <c r="G107" s="2"/>
     </row>
-    <row r="108" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="108" spans="2:7">
       <c r="B108" s="2" t="s">
-        <v>457</v>
+        <v>439</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>458</v>
+        <v>440</v>
       </c>
       <c r="D108" s="4"/>
       <c r="E108" s="4"/>
       <c r="F108" s="4"/>
       <c r="G108" s="2"/>
     </row>
-    <row r="109" spans="2:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="2:7" ht="14.25" thickBot="1">
       <c r="B109" s="26" t="s">
-        <v>459</v>
+        <v>441</v>
       </c>
       <c r="C109" s="26" t="s">
-        <v>460</v>
+        <v>442</v>
       </c>
       <c r="D109" s="27"/>
       <c r="E109" s="27"/>
       <c r="F109" s="27"/>
       <c r="G109" s="26"/>
     </row>
-    <row r="110" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="110" spans="2:7">
       <c r="B110" s="29" t="s">
-        <v>461</v>
+        <v>443</v>
       </c>
       <c r="C110" s="25" t="s">
-        <v>462</v>
+        <v>444</v>
       </c>
       <c r="D110" s="24"/>
       <c r="E110" s="24"/>
       <c r="F110" s="24"/>
       <c r="G110" s="25"/>
     </row>
-    <row r="111" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="111" spans="2:7">
       <c r="B111" s="18" t="s">
-        <v>404</v>
+        <v>386</v>
       </c>
       <c r="C111" s="18" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D111" s="4"/>
       <c r="E111" s="4"/>
       <c r="F111" s="4"/>
       <c r="G111" s="2"/>
     </row>
-    <row r="112" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="112" spans="2:7">
       <c r="B112" s="18" t="s">
-        <v>405</v>
+        <v>387</v>
       </c>
       <c r="C112" s="18" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D112" s="4"/>
       <c r="E112" s="4"/>
       <c r="F112" s="4"/>
       <c r="G112" s="2"/>
     </row>
-    <row r="113" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="113" spans="2:7">
       <c r="B113" s="2" t="s">
-        <v>463</v>
+        <v>445</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>464</v>
+        <v>446</v>
       </c>
       <c r="D113" s="4"/>
       <c r="E113" s="4"/>
       <c r="F113" s="4"/>
       <c r="G113" s="2"/>
     </row>
-    <row r="114" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="114" spans="2:7">
       <c r="B114" s="2" t="s">
-        <v>465</v>
+        <v>447</v>
       </c>
       <c r="C114" s="28" t="s">
-        <v>466</v>
+        <v>448</v>
       </c>
       <c r="D114" s="4"/>
       <c r="E114" s="4"/>
       <c r="F114" s="4"/>
       <c r="G114" s="2"/>
     </row>
-    <row r="115" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="115" spans="2:7">
       <c r="B115" s="2" t="s">
-        <v>467</v>
+        <v>449</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>468</v>
+        <v>450</v>
       </c>
       <c r="D115" s="4"/>
       <c r="E115" s="4"/>
       <c r="F115" s="4"/>
       <c r="G115" s="2"/>
     </row>
-    <row r="116" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="116" spans="2:7">
       <c r="B116" s="18" t="s">
-        <v>406</v>
+        <v>388</v>
       </c>
       <c r="C116" s="18" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D116" s="4"/>
       <c r="E116" s="4"/>
       <c r="F116" s="4"/>
       <c r="G116" s="2"/>
     </row>
-    <row r="117" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="117" spans="2:7">
       <c r="B117" s="2" t="s">
-        <v>469</v>
+        <v>451</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>470</v>
+        <v>452</v>
       </c>
       <c r="D117" s="4"/>
       <c r="E117" s="4"/>
       <c r="F117" s="4"/>
       <c r="G117" s="2"/>
     </row>
-    <row r="118" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="118" spans="2:7">
       <c r="B118" s="2" t="s">
-        <v>471</v>
+        <v>453</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>472</v>
+        <v>454</v>
       </c>
       <c r="D118" s="4"/>
       <c r="E118" s="4"/>
       <c r="F118" s="4"/>
       <c r="G118" s="2"/>
     </row>
-    <row r="119" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="119" spans="2:7">
       <c r="B119" s="2" t="s">
-        <v>473</v>
+        <v>455</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>474</v>
+        <v>456</v>
       </c>
       <c r="D119" s="4"/>
       <c r="E119" s="4"/>
       <c r="F119" s="4"/>
       <c r="G119" s="2"/>
     </row>
-    <row r="120" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="120" spans="2:7">
       <c r="B120" s="2" t="s">
-        <v>475</v>
+        <v>457</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>476</v>
+        <v>458</v>
       </c>
       <c r="D120" s="4"/>
       <c r="E120" s="4"/>
       <c r="F120" s="4"/>
       <c r="G120" s="2"/>
     </row>
-    <row r="121" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="121" spans="2:7">
       <c r="B121" s="2" t="s">
-        <v>477</v>
+        <v>459</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>478</v>
+        <v>460</v>
       </c>
       <c r="D121" s="4"/>
       <c r="E121" s="4"/>
       <c r="F121" s="4"/>
       <c r="G121" s="2"/>
     </row>
-    <row r="122" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="122" spans="2:7">
       <c r="B122" s="2" t="s">
-        <v>479</v>
+        <v>461</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>480</v>
+        <v>462</v>
       </c>
       <c r="D122" s="4"/>
       <c r="E122" s="4"/>
       <c r="F122" s="4"/>
       <c r="G122" s="2"/>
     </row>
-    <row r="123" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="123" spans="2:7">
       <c r="B123" s="2" t="s">
-        <v>481</v>
+        <v>463</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>482</v>
+        <v>464</v>
       </c>
       <c r="D123" s="4"/>
       <c r="E123" s="4"/>
       <c r="F123" s="4"/>
       <c r="G123" s="2"/>
     </row>
-    <row r="124" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="124" spans="2:7">
       <c r="B124" s="2" t="s">
-        <v>483</v>
+        <v>465</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>484</v>
+        <v>466</v>
       </c>
       <c r="D124" s="4"/>
       <c r="E124" s="4"/>
       <c r="F124" s="4"/>
       <c r="G124" s="2"/>
     </row>
-    <row r="125" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="125" spans="2:7">
       <c r="B125" s="2" t="s">
-        <v>485</v>
+        <v>467</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>486</v>
+        <v>468</v>
       </c>
       <c r="D125" s="4"/>
       <c r="E125" s="4"/>
       <c r="F125" s="4"/>
       <c r="G125" s="2"/>
     </row>
-    <row r="126" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="126" spans="2:7">
       <c r="B126" s="2" t="s">
-        <v>487</v>
+        <v>469</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>488</v>
+        <v>470</v>
       </c>
       <c r="D126" s="4"/>
       <c r="E126" s="4"/>
       <c r="F126" s="4"/>
       <c r="G126" s="2"/>
     </row>
-    <row r="127" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="127" spans="2:7">
       <c r="B127" s="2" t="s">
-        <v>489</v>
+        <v>471</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>490</v>
+        <v>472</v>
       </c>
       <c r="D127" s="4"/>
       <c r="E127" s="4"/>
       <c r="F127" s="4"/>
       <c r="G127" s="2"/>
     </row>
-    <row r="128" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="128" spans="2:7">
       <c r="B128" s="2" t="s">
-        <v>491</v>
+        <v>473</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>492</v>
+        <v>474</v>
       </c>
       <c r="D128" s="4"/>
       <c r="E128" s="4"/>
       <c r="F128" s="4"/>
       <c r="G128" s="2"/>
     </row>
-    <row r="129" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="129" spans="2:7">
       <c r="B129" s="2" t="s">
-        <v>493</v>
+        <v>475</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>494</v>
+        <v>476</v>
       </c>
       <c r="D129" s="4"/>
       <c r="E129" s="4"/>
       <c r="F129" s="4"/>
       <c r="G129" s="2"/>
     </row>
-    <row r="130" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="130" spans="2:7">
       <c r="B130" s="2" t="s">
-        <v>495</v>
+        <v>477</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>496</v>
+        <v>478</v>
       </c>
       <c r="D130" s="4"/>
       <c r="E130" s="4"/>
       <c r="F130" s="4"/>
       <c r="G130" s="2"/>
     </row>
-    <row r="131" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="131" spans="2:7">
       <c r="B131" s="2" t="s">
-        <v>497</v>
+        <v>479</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>498</v>
+        <v>480</v>
       </c>
       <c r="D131" s="4"/>
       <c r="E131" s="4"/>
       <c r="F131" s="4"/>
       <c r="G131" s="2"/>
     </row>
-    <row r="132" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="132" spans="2:7">
       <c r="B132" s="2" t="s">
-        <v>499</v>
+        <v>481</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>500</v>
+        <v>482</v>
       </c>
       <c r="D132" s="4"/>
       <c r="E132" s="4"/>
       <c r="F132" s="4"/>
       <c r="G132" s="2"/>
     </row>
-    <row r="133" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="133" spans="2:7">
       <c r="B133" s="2" t="s">
-        <v>410</v>
+        <v>392</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>501</v>
+        <v>483</v>
       </c>
       <c r="D133" s="4"/>
       <c r="E133" s="4"/>
       <c r="F133" s="4"/>
       <c r="G133" s="2"/>
     </row>
-    <row r="134" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="134" spans="2:7">
       <c r="B134" s="2" t="s">
-        <v>503</v>
+        <v>485</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>502</v>
+        <v>484</v>
       </c>
       <c r="D134" s="4"/>
       <c r="E134" s="4"/>
       <c r="F134" s="4"/>
       <c r="G134" s="2"/>
     </row>
-    <row r="135" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="135" spans="2:7">
       <c r="B135" s="2" t="s">
-        <v>411</v>
+        <v>393</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>504</v>
+        <v>486</v>
       </c>
       <c r="D135" s="4"/>
       <c r="E135" s="4"/>
       <c r="F135" s="4"/>
       <c r="G135" s="2"/>
     </row>
-    <row r="136" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="136" spans="2:7">
       <c r="B136" s="2" t="s">
-        <v>417</v>
+        <v>399</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>418</v>
+        <v>400</v>
       </c>
       <c r="D136" s="4"/>
       <c r="E136" s="4"/>
       <c r="F136" s="4"/>
       <c r="G136" s="2"/>
     </row>
-    <row r="137" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="137" spans="2:7">
       <c r="B137" s="2" t="s">
-        <v>506</v>
+        <v>488</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>505</v>
+        <v>487</v>
       </c>
       <c r="D137" s="4"/>
       <c r="E137" s="4"/>
       <c r="F137" s="4"/>
       <c r="G137" s="2"/>
     </row>
-    <row r="138" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="138" spans="2:7">
       <c r="B138" s="2" t="s">
-        <v>507</v>
+        <v>489</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>508</v>
+        <v>490</v>
       </c>
       <c r="D138" s="4"/>
       <c r="E138" s="4"/>
       <c r="F138" s="4"/>
       <c r="G138" s="2"/>
     </row>
-    <row r="139" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="139" spans="2:7">
       <c r="B139" s="2" t="s">
-        <v>451</v>
+        <v>433</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>452</v>
+        <v>434</v>
       </c>
       <c r="D139" s="4"/>
       <c r="E139" s="4"/>
       <c r="F139" s="4"/>
       <c r="G139" s="2"/>
     </row>
-    <row r="140" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="140" spans="2:7">
       <c r="B140" s="2" t="s">
-        <v>509</v>
+        <v>491</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>510</v>
+        <v>492</v>
       </c>
       <c r="D140" s="4"/>
       <c r="E140" s="4"/>
       <c r="F140" s="4"/>
       <c r="G140" s="2"/>
     </row>
-    <row r="141" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="141" spans="2:7">
       <c r="B141" s="2" t="s">
-        <v>511</v>
+        <v>493</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>512</v>
+        <v>494</v>
       </c>
       <c r="D141" s="4"/>
       <c r="E141" s="4"/>
       <c r="F141" s="4"/>
       <c r="G141" s="2"/>
     </row>
-    <row r="142" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="142" spans="2:7">
       <c r="B142" s="2" t="s">
-        <v>513</v>
+        <v>495</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>514</v>
+        <v>496</v>
       </c>
       <c r="D142" s="4"/>
       <c r="E142" s="4"/>
       <c r="F142" s="4"/>
       <c r="G142" s="2"/>
     </row>
-    <row r="143" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="143" spans="2:7">
       <c r="B143" s="2" t="s">
-        <v>515</v>
+        <v>497</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>516</v>
+        <v>498</v>
       </c>
       <c r="D143" s="4"/>
       <c r="E143" s="4"/>
       <c r="F143" s="4"/>
       <c r="G143" s="2"/>
     </row>
-    <row r="144" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="144" spans="2:7">
       <c r="B144" s="2" t="s">
-        <v>517</v>
+        <v>499</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>518</v>
+        <v>500</v>
       </c>
       <c r="D144" s="4"/>
       <c r="E144" s="4"/>
       <c r="F144" s="4"/>
       <c r="G144" s="2"/>
     </row>
-    <row r="145" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="145" spans="2:7">
       <c r="B145" s="22" t="s">
-        <v>429</v>
+        <v>411</v>
       </c>
       <c r="C145" s="22" t="s">
-        <v>430</v>
+        <v>412</v>
       </c>
       <c r="D145" s="4"/>
       <c r="E145" s="4"/>
       <c r="F145" s="4"/>
       <c r="G145" s="2"/>
     </row>
-    <row r="146" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="146" spans="2:7">
       <c r="B146" s="2" t="s">
-        <v>519</v>
+        <v>501</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>520</v>
+        <v>502</v>
       </c>
       <c r="D146" s="4"/>
       <c r="E146" s="4"/>
       <c r="F146" s="4"/>
       <c r="G146" s="2"/>
     </row>
-    <row r="147" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="147" spans="2:7">
       <c r="B147" s="2" t="s">
-        <v>521</v>
+        <v>503</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>522</v>
+        <v>504</v>
       </c>
       <c r="D147" s="4"/>
       <c r="E147" s="4"/>
       <c r="F147" s="4"/>
       <c r="G147" s="2"/>
     </row>
-    <row r="148" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="148" spans="2:7">
       <c r="B148" s="2" t="s">
-        <v>523</v>
+        <v>505</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>524</v>
+        <v>506</v>
       </c>
       <c r="D148" s="4"/>
       <c r="E148" s="4"/>
       <c r="F148" s="4"/>
       <c r="G148" s="2"/>
     </row>
-    <row r="149" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="149" spans="2:7">
       <c r="B149" s="2" t="s">
-        <v>525</v>
+        <v>507</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>526</v>
+        <v>508</v>
       </c>
       <c r="D149" s="4"/>
       <c r="E149" s="4"/>
       <c r="F149" s="4"/>
       <c r="G149" s="2"/>
     </row>
-    <row r="150" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="150" spans="2:7">
       <c r="B150" s="2" t="s">
-        <v>527</v>
+        <v>509</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>528</v>
+        <v>510</v>
       </c>
       <c r="D150" s="4"/>
       <c r="E150" s="4"/>
       <c r="F150" s="4"/>
       <c r="G150" s="2"/>
     </row>
-    <row r="151" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="151" spans="2:7">
       <c r="B151" s="2" t="s">
-        <v>529</v>
+        <v>511</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>530</v>
+        <v>512</v>
       </c>
       <c r="D151" s="4"/>
       <c r="E151" s="4"/>
       <c r="F151" s="4"/>
       <c r="G151" s="2"/>
     </row>
-    <row r="152" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="152" spans="2:7">
       <c r="B152" s="2" t="s">
-        <v>531</v>
+        <v>513</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>532</v>
+        <v>514</v>
       </c>
       <c r="D152" s="4"/>
       <c r="E152" s="4"/>
       <c r="F152" s="4"/>
       <c r="G152" s="2"/>
     </row>
-    <row r="153" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="153" spans="2:7">
       <c r="B153" s="2" t="s">
-        <v>423</v>
+        <v>405</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>424</v>
+        <v>406</v>
       </c>
       <c r="D153" s="4"/>
       <c r="E153" s="4"/>
       <c r="F153" s="4"/>
       <c r="G153" s="2"/>
     </row>
-    <row r="154" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="154" spans="2:7">
       <c r="B154" s="2" t="s">
-        <v>533</v>
+        <v>515</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>534</v>
+        <v>516</v>
       </c>
       <c r="D154" s="4"/>
       <c r="E154" s="4"/>
       <c r="F154" s="4"/>
       <c r="G154" s="2"/>
     </row>
-    <row r="155" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="155" spans="2:7">
       <c r="B155" s="2" t="s">
-        <v>535</v>
+        <v>517</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>536</v>
+        <v>518</v>
       </c>
       <c r="D155" s="4"/>
       <c r="E155" s="4"/>
       <c r="F155" s="4"/>
       <c r="G155" s="2"/>
     </row>
-    <row r="156" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="156" spans="2:7">
       <c r="B156" s="2" t="s">
-        <v>537</v>
+        <v>519</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>538</v>
+        <v>520</v>
       </c>
       <c r="D156" s="4"/>
       <c r="E156" s="4"/>
       <c r="F156" s="4"/>
       <c r="G156" s="2"/>
     </row>
-    <row r="157" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="157" spans="2:7">
       <c r="B157" s="2" t="s">
-        <v>539</v>
+        <v>521</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>540</v>
+        <v>522</v>
       </c>
       <c r="D157" s="4"/>
       <c r="E157" s="4"/>
       <c r="F157" s="4"/>
       <c r="G157" s="2"/>
     </row>
-    <row r="158" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="158" spans="2:7">
       <c r="B158" s="2" t="s">
-        <v>541</v>
+        <v>523</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>554</v>
+        <v>536</v>
       </c>
       <c r="D158" s="4"/>
       <c r="E158" s="4"/>
       <c r="F158" s="4"/>
       <c r="G158" s="2"/>
     </row>
-    <row r="159" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="159" spans="2:7">
       <c r="B159" s="2" t="s">
-        <v>542</v>
+        <v>524</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>543</v>
+        <v>525</v>
       </c>
       <c r="D159" s="4"/>
       <c r="E159" s="4"/>
       <c r="F159" s="4"/>
       <c r="G159" s="2"/>
     </row>
-    <row r="160" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="160" spans="2:7">
       <c r="B160" s="2" t="s">
-        <v>544</v>
+        <v>526</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>545</v>
+        <v>527</v>
       </c>
       <c r="D160" s="4"/>
       <c r="E160" s="4"/>
       <c r="F160" s="4"/>
       <c r="G160" s="2"/>
     </row>
-    <row r="161" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="161" spans="2:7">
       <c r="B161" s="2" t="s">
-        <v>546</v>
+        <v>528</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>547</v>
+        <v>529</v>
       </c>
       <c r="D161" s="4"/>
       <c r="E161" s="4"/>
       <c r="F161" s="4"/>
       <c r="G161" s="2"/>
     </row>
-    <row r="162" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="162" spans="2:7">
       <c r="B162" s="2" t="s">
-        <v>548</v>
+        <v>530</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>549</v>
+        <v>531</v>
       </c>
       <c r="D162" s="4"/>
       <c r="E162" s="4"/>
       <c r="F162" s="4"/>
       <c r="G162" s="2"/>
     </row>
-    <row r="163" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="163" spans="2:7">
       <c r="B163" s="2" t="s">
-        <v>550</v>
+        <v>532</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>551</v>
+        <v>533</v>
       </c>
       <c r="D163" s="4"/>
       <c r="E163" s="4"/>
       <c r="F163" s="4"/>
       <c r="G163" s="2"/>
     </row>
-    <row r="164" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="164" spans="2:7">
       <c r="B164" s="2" t="s">
-        <v>552</v>
+        <v>534</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>553</v>
+        <v>535</v>
       </c>
       <c r="D164" s="4"/>
       <c r="E164" s="4"/>
       <c r="F164" s="4"/>
       <c r="G164" s="2"/>
     </row>
-    <row r="165" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="165" spans="2:7">
       <c r="B165" s="2" t="s">
-        <v>555</v>
+        <v>537</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>556</v>
+        <v>538</v>
       </c>
       <c r="D165" s="4"/>
       <c r="E165" s="4"/>
       <c r="F165" s="4"/>
       <c r="G165" s="2"/>
     </row>
-    <row r="166" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="166" spans="2:7">
       <c r="B166" s="2" t="s">
-        <v>557</v>
+        <v>539</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>558</v>
+        <v>540</v>
       </c>
       <c r="D166" s="4"/>
       <c r="E166" s="4"/>
       <c r="F166" s="4"/>
       <c r="G166" s="2"/>
     </row>
-    <row r="167" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="167" spans="2:7">
       <c r="B167" s="2" t="s">
-        <v>559</v>
+        <v>541</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>560</v>
+        <v>542</v>
       </c>
       <c r="D167" s="4"/>
       <c r="E167" s="4"/>
       <c r="F167" s="4"/>
       <c r="G167" s="2"/>
     </row>
-    <row r="168" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="168" spans="2:7">
       <c r="B168" s="2" t="s">
-        <v>561</v>
+        <v>543</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>562</v>
+        <v>544</v>
       </c>
       <c r="D168" s="4"/>
       <c r="E168" s="4"/>
       <c r="F168" s="4"/>
       <c r="G168" s="2"/>
     </row>
-    <row r="169" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="169" spans="2:7">
       <c r="B169" s="2" t="s">
-        <v>563</v>
+        <v>545</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>564</v>
+        <v>546</v>
       </c>
       <c r="D169" s="4"/>
       <c r="E169" s="4"/>
       <c r="F169" s="4"/>
       <c r="G169" s="2"/>
     </row>
-    <row r="170" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="170" spans="2:7">
       <c r="B170" s="2" t="s">
-        <v>565</v>
+        <v>547</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>566</v>
+        <v>548</v>
       </c>
       <c r="D170" s="4"/>
       <c r="E170" s="4"/>
       <c r="F170" s="4"/>
       <c r="G170" s="2"/>
     </row>
-    <row r="171" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="171" spans="2:7">
       <c r="B171" s="2" t="s">
-        <v>567</v>
+        <v>549</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>568</v>
+        <v>550</v>
       </c>
       <c r="D171" s="4"/>
       <c r="E171" s="4"/>
       <c r="F171" s="4"/>
       <c r="G171" s="2"/>
     </row>
-    <row r="172" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="172" spans="2:7">
       <c r="B172" s="2" t="s">
-        <v>569</v>
+        <v>551</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>570</v>
+        <v>552</v>
       </c>
       <c r="D172" s="4"/>
       <c r="E172" s="4"/>
       <c r="F172" s="4"/>
       <c r="G172" s="2"/>
     </row>
-    <row r="173" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="173" spans="2:7">
       <c r="B173" s="2" t="s">
-        <v>571</v>
+        <v>553</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>572</v>
+        <v>554</v>
       </c>
       <c r="D173" s="4"/>
       <c r="E173" s="4"/>
       <c r="F173" s="4"/>
       <c r="G173" s="2"/>
     </row>
-    <row r="174" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="174" spans="2:7">
       <c r="B174" s="2" t="s">
-        <v>573</v>
+        <v>555</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>574</v>
+        <v>595</v>
       </c>
       <c r="D174" s="4"/>
       <c r="E174" s="4"/>
       <c r="F174" s="4"/>
       <c r="G174" s="2"/>
     </row>
-    <row r="175" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="175" spans="2:7">
       <c r="B175" s="2" t="s">
-        <v>575</v>
+        <v>556</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>576</v>
+        <v>557</v>
       </c>
       <c r="D175" s="4"/>
       <c r="E175" s="4"/>
       <c r="F175" s="4"/>
       <c r="G175" s="2"/>
     </row>
-    <row r="176" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="176" spans="2:7">
       <c r="B176" s="2" t="s">
-        <v>577</v>
+        <v>558</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>578</v>
+        <v>559</v>
       </c>
       <c r="D176" s="4"/>
       <c r="E176" s="4"/>
       <c r="F176" s="4"/>
       <c r="G176" s="2"/>
     </row>
-    <row r="177" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="177" spans="2:7">
       <c r="B177" s="2" t="s">
-        <v>579</v>
+        <v>560</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>580</v>
+        <v>561</v>
       </c>
       <c r="D177" s="4"/>
       <c r="E177" s="4"/>
       <c r="F177" s="4"/>
       <c r="G177" s="2"/>
     </row>
-    <row r="178" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="178" spans="2:7">
       <c r="B178" s="2" t="s">
-        <v>581</v>
+        <v>562</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>582</v>
+        <v>563</v>
       </c>
       <c r="D178" s="4"/>
       <c r="E178" s="4"/>
       <c r="F178" s="4"/>
       <c r="G178" s="2"/>
     </row>
-    <row r="179" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="179" spans="2:7">
       <c r="B179" s="2" t="s">
-        <v>583</v>
+        <v>564</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>584</v>
+        <v>594</v>
       </c>
       <c r="D179" s="4"/>
       <c r="E179" s="4"/>
       <c r="F179" s="4"/>
       <c r="G179" s="2"/>
     </row>
-    <row r="180" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="180" spans="2:7">
       <c r="B180" s="2" t="s">
-        <v>585</v>
+        <v>565</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>586</v>
+        <v>566</v>
       </c>
       <c r="D180" s="4"/>
       <c r="E180" s="4"/>
       <c r="F180" s="4"/>
       <c r="G180" s="2"/>
     </row>
-    <row r="181" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="181" spans="2:7">
       <c r="B181" s="2"/>
       <c r="C181" s="4"/>
       <c r="D181" s="4"/>
@@ -4618,143 +4672,143 @@
   <dimension ref="B3:D27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="14.875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:4">
       <c r="B3" s="33" t="s">
-        <v>596</v>
+        <v>575</v>
       </c>
       <c r="C3" s="33" t="s">
-        <v>597</v>
+        <v>576</v>
       </c>
       <c r="D3" s="33" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.15">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4">
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:4">
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:4">
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:4">
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:4">
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:4">
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
     </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:4">
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:4">
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:4">
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:4">
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:4">
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
     </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:4">
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
     </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:4">
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:4">
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:4">
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:4">
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:4">
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:4">
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
     </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:4">
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:4">
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
     </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:4">
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
     </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:4">
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
     </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:4">
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
     </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:4">
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
@@ -4768,11 +4822,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B2:K143"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="J56" sqref="J56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="13.5"/>
   <cols>
     <col min="3" max="3" width="51.875" customWidth="1"/>
     <col min="4" max="4" width="33.375" customWidth="1"/>
@@ -4782,57 +4836,57 @@
     <col min="13" max="13" width="11.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:11">
       <c r="B2" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>580</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3" spans="2:11">
+      <c r="B3" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C3" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>594</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B3" s="15" t="s">
-        <v>100</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>101</v>
-      </c>
       <c r="D3" s="2" t="s">
-        <v>102</v>
+        <v>365</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>375</v>
+        <v>359</v>
       </c>
       <c r="F3" s="2">
         <v>3</v>
       </c>
       <c r="G3" s="2"/>
       <c r="H3" s="21" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="I3" s="2">
         <v>1</v>
@@ -4841,28 +4895,28 @@
         <v>6</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.15">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11">
       <c r="B4" s="15" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>102</v>
+        <v>365</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>375</v>
+        <v>359</v>
       </c>
       <c r="F4" s="2">
         <v>2</v>
       </c>
       <c r="G4" s="2"/>
       <c r="H4" s="21" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="I4" s="2">
         <v>1</v>
@@ -4871,28 +4925,28 @@
         <v>6</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.15">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11">
       <c r="B5" s="15" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>102</v>
+        <v>365</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>375</v>
+        <v>359</v>
       </c>
       <c r="F5" s="2">
         <v>2</v>
       </c>
       <c r="G5" s="2"/>
       <c r="H5" s="21" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="I5" s="2">
         <v>1</v>
@@ -4901,28 +4955,28 @@
         <v>6</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.15">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11">
       <c r="B6" s="15" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>102</v>
+        <v>365</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>375</v>
+        <v>359</v>
       </c>
       <c r="F6" s="2">
         <v>4</v>
       </c>
       <c r="G6" s="2"/>
       <c r="H6" s="21" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="I6" s="2">
         <v>1</v>
@@ -4931,28 +4985,28 @@
         <v>8</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.15">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11">
       <c r="B7" s="15" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>102</v>
+        <v>365</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>375</v>
+        <v>359</v>
       </c>
       <c r="F7" s="2">
         <v>4</v>
       </c>
       <c r="G7" s="2"/>
       <c r="H7" s="21" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="I7" s="2">
         <v>1</v>
@@ -4961,28 +5015,28 @@
         <v>6</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.15">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11">
       <c r="B8" s="15" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>102</v>
+        <v>365</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>375</v>
+        <v>359</v>
       </c>
       <c r="F8" s="2">
         <v>4</v>
       </c>
       <c r="G8" s="2"/>
       <c r="H8" s="21" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="I8" s="2">
         <v>1</v>
@@ -4991,28 +5045,28 @@
         <v>8</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.15">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11">
       <c r="B9" s="15" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>102</v>
+        <v>365</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>375</v>
+        <v>359</v>
       </c>
       <c r="F9" s="2">
         <v>3</v>
       </c>
       <c r="G9" s="2"/>
       <c r="H9" s="21" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="I9" s="2">
         <v>1</v>
@@ -5021,28 +5075,28 @@
         <v>7</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.15">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11">
       <c r="B10" s="15" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>102</v>
+        <v>365</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>375</v>
+        <v>359</v>
       </c>
       <c r="F10" s="2">
         <v>4</v>
       </c>
       <c r="G10" s="2"/>
       <c r="H10" s="21" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="I10" s="2">
         <v>2</v>
@@ -5051,28 +5105,28 @@
         <v>6</v>
       </c>
       <c r="K10" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11">
+      <c r="B11" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B11" s="15" t="s">
-        <v>120</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>121</v>
-      </c>
       <c r="D11" s="2" t="s">
-        <v>102</v>
+        <v>365</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>375</v>
+        <v>359</v>
       </c>
       <c r="F11" s="2">
         <v>4</v>
       </c>
       <c r="G11" s="2"/>
       <c r="H11" s="21" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="I11" s="2">
         <v>2</v>
@@ -5081,28 +5135,28 @@
         <v>4</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.15">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11">
       <c r="B12" s="15" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>102</v>
+        <v>365</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>375</v>
+        <v>359</v>
       </c>
       <c r="F12" s="2">
         <v>3</v>
       </c>
       <c r="G12" s="2"/>
       <c r="H12" s="21" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="I12" s="2">
         <v>2</v>
@@ -5111,28 +5165,28 @@
         <v>8</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.15">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11">
       <c r="B13" s="15" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>102</v>
+        <v>365</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>375</v>
+        <v>359</v>
       </c>
       <c r="F13" s="2">
         <v>4</v>
       </c>
       <c r="G13" s="2"/>
       <c r="H13" s="21" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="I13" s="2">
         <v>2</v>
@@ -5141,28 +5195,28 @@
         <v>6</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.15">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11">
       <c r="B14" s="15" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>102</v>
+        <v>365</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>375</v>
+        <v>359</v>
       </c>
       <c r="F14" s="2">
         <v>1</v>
       </c>
       <c r="G14" s="2"/>
       <c r="H14" s="21" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="I14" s="2">
         <v>2</v>
@@ -5171,28 +5225,28 @@
         <v>6</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.15">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11">
       <c r="B15" s="15" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>102</v>
+        <v>365</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>375</v>
+        <v>359</v>
       </c>
       <c r="F15" s="2">
         <v>3</v>
       </c>
       <c r="G15" s="2"/>
       <c r="H15" s="21" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="I15" s="2">
         <v>2</v>
@@ -5201,28 +5255,28 @@
         <v>4</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.15">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11">
       <c r="B16" s="15" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>102</v>
+        <v>365</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>375</v>
+        <v>359</v>
       </c>
       <c r="F16" s="2">
         <v>2</v>
       </c>
       <c r="G16" s="2"/>
       <c r="H16" s="21" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="I16" s="2">
         <v>2</v>
@@ -5231,28 +5285,28 @@
         <v>3</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.15">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11">
       <c r="B17" s="15" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>102</v>
+        <v>365</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>375</v>
+        <v>359</v>
       </c>
       <c r="F17" s="2">
         <v>2</v>
       </c>
       <c r="G17" s="2"/>
       <c r="H17" s="21" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="I17" s="2">
         <v>3</v>
@@ -5261,28 +5315,28 @@
         <v>4</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.15">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11">
       <c r="B18" s="15" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>102</v>
+        <v>365</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>375</v>
+        <v>359</v>
       </c>
       <c r="F18" s="2">
         <v>4</v>
       </c>
       <c r="G18" s="2"/>
       <c r="H18" s="21" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="I18" s="2">
         <v>3</v>
@@ -5291,28 +5345,28 @@
         <v>3</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.15">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11">
       <c r="B19" s="15" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>102</v>
+        <v>365</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>375</v>
+        <v>359</v>
       </c>
       <c r="F19" s="2">
         <v>2</v>
       </c>
       <c r="G19" s="2"/>
       <c r="H19" s="21" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="I19" s="2">
         <v>3</v>
@@ -5321,28 +5375,28 @@
         <v>6</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.15">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11">
       <c r="B20" s="15" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>102</v>
+        <v>365</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>375</v>
+        <v>359</v>
       </c>
       <c r="F20" s="2">
         <v>1</v>
       </c>
       <c r="G20" s="2"/>
       <c r="H20" s="21" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="I20" s="2">
         <v>3</v>
@@ -5351,28 +5405,28 @@
         <v>3</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.15">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11">
       <c r="B21" s="15" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>102</v>
+        <v>365</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>375</v>
+        <v>359</v>
       </c>
       <c r="F21" s="2">
         <v>4</v>
       </c>
       <c r="G21" s="2"/>
       <c r="H21" s="21" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="I21" s="2">
         <v>3</v>
@@ -5381,28 +5435,28 @@
         <v>2</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.15">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11">
       <c r="B22" s="15" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>102</v>
+        <v>365</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>375</v>
+        <v>359</v>
       </c>
       <c r="F22" s="2">
         <v>4</v>
       </c>
       <c r="G22" s="2"/>
       <c r="H22" s="21" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="I22" s="17">
         <v>3</v>
@@ -5411,28 +5465,28 @@
         <v>2</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.15">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="23" spans="2:11">
       <c r="B23" s="15" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>102</v>
+        <v>365</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>375</v>
+        <v>359</v>
       </c>
       <c r="F23" s="2">
         <v>4</v>
       </c>
       <c r="G23" s="2"/>
       <c r="H23" s="21" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="I23" s="2">
         <v>3</v>
@@ -5441,28 +5495,28 @@
         <v>4</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.15">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="24" spans="2:11">
       <c r="B24" s="15" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>102</v>
+        <v>365</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>375</v>
+        <v>359</v>
       </c>
       <c r="F24" s="2">
         <v>4</v>
       </c>
       <c r="G24" s="2"/>
       <c r="H24" s="21" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="I24" s="2">
         <v>4</v>
@@ -5471,28 +5525,28 @@
         <v>2</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.15">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="25" spans="2:11">
       <c r="B25" s="15" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>102</v>
+        <v>365</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>375</v>
+        <v>359</v>
       </c>
       <c r="F25" s="2">
         <v>3</v>
       </c>
       <c r="G25" s="2"/>
       <c r="H25" s="21" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="I25" s="2">
         <v>4</v>
@@ -5501,28 +5555,28 @@
         <v>1</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.15">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="26" spans="2:11">
       <c r="B26" s="15" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>102</v>
+        <v>365</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>375</v>
+        <v>359</v>
       </c>
       <c r="F26" s="2">
         <v>4</v>
       </c>
       <c r="G26" s="2"/>
       <c r="H26" s="21" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="I26" s="2">
         <v>4</v>
@@ -5531,28 +5585,28 @@
         <v>3</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.15">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="27" spans="2:11">
       <c r="B27" s="15" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>102</v>
+        <v>365</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>375</v>
+        <v>359</v>
       </c>
       <c r="F27" s="2">
         <v>3</v>
       </c>
       <c r="G27" s="2"/>
       <c r="H27" s="21" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="I27" s="2">
         <v>4</v>
@@ -5561,28 +5615,28 @@
         <v>2</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.15">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="28" spans="2:11">
       <c r="B28" s="15" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>102</v>
+        <v>365</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>375</v>
+        <v>359</v>
       </c>
       <c r="F28" s="2">
         <v>2</v>
       </c>
       <c r="G28" s="2"/>
       <c r="H28" s="21" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="I28" s="2">
         <v>4</v>
@@ -5591,28 +5645,28 @@
         <v>3</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.15">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="29" spans="2:11">
       <c r="B29" s="15" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>102</v>
+        <v>365</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>375</v>
+        <v>359</v>
       </c>
       <c r="F29" s="2">
         <v>4</v>
       </c>
       <c r="G29" s="2"/>
       <c r="H29" s="21" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="I29" s="2">
         <v>4</v>
@@ -5621,28 +5675,28 @@
         <v>2</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="30" spans="2:11" x14ac:dyDescent="0.15">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="30" spans="2:11">
       <c r="B30" s="15" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>102</v>
+        <v>365</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>375</v>
+        <v>359</v>
       </c>
       <c r="F30" s="2">
         <v>3</v>
       </c>
       <c r="G30" s="2"/>
       <c r="H30" s="21" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="I30" s="2">
         <v>5</v>
@@ -5651,28 +5705,28 @@
         <v>1</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="31" spans="2:11" x14ac:dyDescent="0.15">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="31" spans="2:11">
       <c r="B31" s="15" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>102</v>
+        <v>365</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>375</v>
+        <v>359</v>
       </c>
       <c r="F31" s="2">
         <v>4</v>
       </c>
       <c r="G31" s="2"/>
       <c r="H31" s="21" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="I31" s="2">
         <v>5</v>
@@ -5681,28 +5735,28 @@
         <v>1</v>
       </c>
       <c r="K31" s="2" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="32" spans="2:11" x14ac:dyDescent="0.15">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="32" spans="2:11">
       <c r="B32" s="15" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>102</v>
+        <v>365</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>375</v>
+        <v>359</v>
       </c>
       <c r="F32" s="2">
         <v>3</v>
       </c>
       <c r="G32" s="2"/>
       <c r="H32" s="21" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="I32" s="2">
         <v>5</v>
@@ -5711,28 +5765,28 @@
         <v>1</v>
       </c>
       <c r="K32" s="2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.15">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="33" spans="2:11">
       <c r="B33" s="15" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>102</v>
+        <v>365</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>375</v>
+        <v>359</v>
       </c>
       <c r="F33" s="2">
         <v>4</v>
       </c>
       <c r="G33" s="2"/>
       <c r="H33" s="21" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="I33" s="2">
         <v>5</v>
@@ -5741,28 +5795,28 @@
         <v>2</v>
       </c>
       <c r="K33" s="2" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.15">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="34" spans="2:11">
       <c r="B34" s="15" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>102</v>
+        <v>365</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>375</v>
+        <v>359</v>
       </c>
       <c r="F34" s="2">
         <v>3</v>
       </c>
       <c r="G34" s="2"/>
       <c r="H34" s="21" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="I34" s="2">
         <v>5</v>
@@ -5771,28 +5825,28 @@
         <v>2</v>
       </c>
       <c r="K34" s="2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.15">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="35" spans="2:11">
       <c r="B35" s="15" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>102</v>
+        <v>365</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>375</v>
+        <v>359</v>
       </c>
       <c r="F35" s="2">
         <v>3</v>
       </c>
       <c r="G35" s="2"/>
       <c r="H35" s="21" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="I35" s="2">
         <v>5</v>
@@ -5801,28 +5855,28 @@
         <v>2</v>
       </c>
       <c r="K35" s="2" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="36" spans="2:11" x14ac:dyDescent="0.15">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="36" spans="2:11">
       <c r="B36" s="15" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>102</v>
+        <v>365</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>375</v>
+        <v>359</v>
       </c>
       <c r="F36" s="2">
         <v>4</v>
       </c>
       <c r="G36" s="2"/>
       <c r="H36" s="21" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="I36" s="2">
         <v>6</v>
@@ -5831,28 +5885,28 @@
         <v>1</v>
       </c>
       <c r="K36" s="2" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.15">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="37" spans="2:11">
       <c r="B37" s="15" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>102</v>
+        <v>365</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>375</v>
+        <v>359</v>
       </c>
       <c r="F37" s="2">
         <v>4</v>
       </c>
       <c r="G37" s="2"/>
       <c r="H37" s="21" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="I37" s="2">
         <v>6</v>
@@ -5861,28 +5915,28 @@
         <v>1</v>
       </c>
       <c r="K37" s="2" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.15">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="38" spans="2:11">
       <c r="B38" s="15" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>102</v>
+        <v>365</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>375</v>
+        <v>359</v>
       </c>
       <c r="F38" s="2">
         <v>4</v>
       </c>
       <c r="G38" s="2"/>
       <c r="H38" s="21" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="I38" s="2">
         <v>6</v>
@@ -5891,28 +5945,28 @@
         <v>1</v>
       </c>
       <c r="K38" s="2" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.15">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="39" spans="2:11">
       <c r="B39" s="15" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>102</v>
+        <v>365</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>375</v>
+        <v>359</v>
       </c>
       <c r="F39" s="2">
         <v>4</v>
       </c>
       <c r="G39" s="2"/>
       <c r="H39" s="21" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="I39" s="2">
         <v>6</v>
@@ -5921,28 +5975,28 @@
         <v>1</v>
       </c>
       <c r="K39" s="2" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.15">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="40" spans="2:11">
       <c r="B40" s="15" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>102</v>
+        <v>365</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>375</v>
+        <v>359</v>
       </c>
       <c r="F40" s="2">
         <v>3</v>
       </c>
       <c r="G40" s="2"/>
       <c r="H40" s="21" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="I40" s="2">
         <v>6</v>
@@ -5951,28 +6005,28 @@
         <v>1</v>
       </c>
       <c r="K40" s="2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.15">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="41" spans="2:11">
       <c r="B41" s="15" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>102</v>
+        <v>365</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>375</v>
+        <v>359</v>
       </c>
       <c r="F41" s="2">
         <v>3</v>
       </c>
       <c r="G41" s="2"/>
       <c r="H41" s="21" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="I41" s="2">
         <v>6</v>
@@ -5981,28 +6035,28 @@
         <v>1</v>
       </c>
       <c r="K41" s="2" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.15">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="42" spans="2:11">
       <c r="B42" s="15" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>102</v>
+        <v>365</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>375</v>
+        <v>359</v>
       </c>
       <c r="F42" s="2">
         <v>2</v>
       </c>
       <c r="G42" s="2"/>
       <c r="H42" s="21" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="I42" s="2">
         <v>7</v>
@@ -6011,28 +6065,28 @@
         <v>1</v>
       </c>
       <c r="K42" s="2" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.15">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="43" spans="2:11">
       <c r="B43" s="15" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>102</v>
+        <v>365</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>375</v>
+        <v>359</v>
       </c>
       <c r="F43" s="2">
         <v>3</v>
       </c>
       <c r="G43" s="2"/>
       <c r="H43" s="21" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="I43" s="2">
         <v>7</v>
@@ -6041,28 +6095,28 @@
         <v>1</v>
       </c>
       <c r="K43" s="2" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.15">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="44" spans="2:11">
       <c r="B44" s="15" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>102</v>
+        <v>365</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>375</v>
+        <v>359</v>
       </c>
       <c r="F44" s="2">
         <v>4</v>
       </c>
       <c r="G44" s="2"/>
       <c r="H44" s="21" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="I44" s="2">
         <v>7</v>
@@ -6071,28 +6125,28 @@
         <v>1</v>
       </c>
       <c r="K44" s="2" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.15">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="45" spans="2:11">
       <c r="B45" s="15" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>102</v>
+        <v>365</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>375</v>
+        <v>359</v>
       </c>
       <c r="F45" s="2">
         <v>3</v>
       </c>
       <c r="G45" s="2"/>
       <c r="H45" s="21" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="I45" s="2">
         <v>7</v>
@@ -6101,28 +6155,28 @@
         <v>1</v>
       </c>
       <c r="K45" s="2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.15">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="46" spans="2:11">
       <c r="B46" s="15" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>102</v>
+        <v>365</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>375</v>
+        <v>359</v>
       </c>
       <c r="F46" s="2">
         <v>2</v>
       </c>
       <c r="G46" s="2"/>
       <c r="H46" s="21" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="I46" s="2">
         <v>7</v>
@@ -6131,28 +6185,28 @@
         <v>1</v>
       </c>
       <c r="K46" s="2" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.15">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="47" spans="2:11">
       <c r="B47" s="15" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>102</v>
+        <v>365</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>375</v>
+        <v>359</v>
       </c>
       <c r="F47" s="2">
         <v>3</v>
       </c>
       <c r="G47" s="2"/>
       <c r="H47" s="21" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="I47" s="2">
         <v>8</v>
@@ -6161,28 +6215,28 @@
         <v>1</v>
       </c>
       <c r="K47" s="2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.15">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="48" spans="2:11">
       <c r="B48" s="15" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>102</v>
+        <v>365</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>375</v>
+        <v>359</v>
       </c>
       <c r="F48" s="2">
         <v>3</v>
       </c>
       <c r="G48" s="2"/>
       <c r="H48" s="21" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="I48" s="2">
         <v>8</v>
@@ -6191,28 +6245,28 @@
         <v>1</v>
       </c>
       <c r="K48" s="2" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="49" spans="2:11" x14ac:dyDescent="0.15">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="49" spans="2:11">
       <c r="B49" s="15" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>102</v>
+        <v>365</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>375</v>
+        <v>359</v>
       </c>
       <c r="F49" s="2">
         <v>3</v>
       </c>
       <c r="G49" s="2"/>
       <c r="H49" s="21" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="I49" s="2">
         <v>8</v>
@@ -6221,28 +6275,28 @@
         <v>1</v>
       </c>
       <c r="K49" s="2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="50" spans="2:11" x14ac:dyDescent="0.15">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="50" spans="2:11">
       <c r="B50" s="15" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>102</v>
+        <v>365</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>375</v>
+        <v>359</v>
       </c>
       <c r="F50" s="2">
         <v>3</v>
       </c>
       <c r="G50" s="2"/>
       <c r="H50" s="21" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="I50" s="2">
         <v>8</v>
@@ -6251,28 +6305,28 @@
         <v>1</v>
       </c>
       <c r="K50" s="2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="51" spans="2:11" x14ac:dyDescent="0.15">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="51" spans="2:11">
       <c r="B51" s="15" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>102</v>
+        <v>365</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>375</v>
+        <v>359</v>
       </c>
       <c r="F51" s="2">
         <v>3</v>
       </c>
       <c r="G51" s="2"/>
       <c r="H51" s="21" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="I51" s="2">
         <v>8</v>
@@ -6281,28 +6335,28 @@
         <v>1</v>
       </c>
       <c r="K51" s="2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="52" spans="2:11" x14ac:dyDescent="0.15">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="52" spans="2:11">
       <c r="B52" s="15" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>102</v>
+        <v>365</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>375</v>
+        <v>359</v>
       </c>
       <c r="F52" s="2">
         <v>2</v>
       </c>
       <c r="G52" s="2"/>
       <c r="H52" s="21" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="I52" s="2">
         <v>8</v>
@@ -6311,28 +6365,28 @@
         <v>1</v>
       </c>
       <c r="K52" s="2" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="53" spans="2:11" x14ac:dyDescent="0.15">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="53" spans="2:11">
       <c r="B53" s="15" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>102</v>
+        <v>365</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>375</v>
+        <v>359</v>
       </c>
       <c r="F53" s="2">
         <v>3</v>
       </c>
       <c r="G53" s="2"/>
       <c r="H53" s="21" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="I53" s="2">
         <v>9</v>
@@ -6341,28 +6395,28 @@
         <v>1</v>
       </c>
       <c r="K53" s="2" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="54" spans="2:11" x14ac:dyDescent="0.15">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="54" spans="2:11">
       <c r="B54" s="15" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>102</v>
+        <v>365</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>375</v>
+        <v>359</v>
       </c>
       <c r="F54" s="2">
         <v>3</v>
       </c>
       <c r="G54" s="2"/>
       <c r="H54" s="21" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="I54" s="2">
         <v>9</v>
@@ -6371,28 +6425,28 @@
         <v>1</v>
       </c>
       <c r="K54" s="2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="55" spans="2:11" x14ac:dyDescent="0.15">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="55" spans="2:11">
       <c r="B55" s="15" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="C55" s="22" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>102</v>
+        <v>365</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>595</v>
+        <v>574</v>
       </c>
       <c r="F55" s="2">
         <v>3</v>
       </c>
       <c r="G55" s="2"/>
       <c r="H55" s="21" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="I55" s="2">
         <v>7</v>
@@ -6401,28 +6455,28 @@
         <v>1</v>
       </c>
       <c r="K55" s="2" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="56" spans="2:11" x14ac:dyDescent="0.15">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="56" spans="2:11">
       <c r="B56" s="15" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="C56" s="22" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>102</v>
+        <v>365</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>595</v>
+        <v>574</v>
       </c>
       <c r="F56" s="2">
         <v>3</v>
       </c>
       <c r="G56" s="2"/>
       <c r="H56" s="21" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="I56" s="2">
         <v>7</v>
@@ -6431,28 +6485,28 @@
         <v>1</v>
       </c>
       <c r="K56" s="2" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="57" spans="2:11" x14ac:dyDescent="0.15">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="57" spans="2:11">
       <c r="B57" s="15" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="C57" s="22" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>102</v>
+        <v>365</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>595</v>
+        <v>574</v>
       </c>
       <c r="F57" s="2">
         <v>3</v>
       </c>
       <c r="G57" s="2"/>
       <c r="H57" s="21" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="I57" s="2">
         <v>7</v>
@@ -6461,21 +6515,21 @@
         <v>1</v>
       </c>
       <c r="K57" s="2" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="58" spans="2:11" x14ac:dyDescent="0.15">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="58" spans="2:11">
       <c r="B58" s="15" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>375</v>
+        <v>359</v>
       </c>
       <c r="F58" s="2">
         <v>4</v>
@@ -6490,18 +6544,18 @@
       </c>
       <c r="K58" s="2"/>
     </row>
-    <row r="59" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="59" spans="2:11">
       <c r="B59" s="15" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>375</v>
+        <v>359</v>
       </c>
       <c r="F59" s="2">
         <v>2</v>
@@ -6516,18 +6570,18 @@
       </c>
       <c r="K59" s="2"/>
     </row>
-    <row r="60" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="60" spans="2:11">
       <c r="B60" s="15" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>375</v>
+        <v>359</v>
       </c>
       <c r="F60" s="2">
         <v>2</v>
@@ -6542,18 +6596,18 @@
       </c>
       <c r="K60" s="2"/>
     </row>
-    <row r="61" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="61" spans="2:11">
       <c r="B61" s="15" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>375</v>
+        <v>359</v>
       </c>
       <c r="F61" s="2">
         <v>4</v>
@@ -6568,18 +6622,18 @@
       </c>
       <c r="K61" s="2"/>
     </row>
-    <row r="62" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="62" spans="2:11">
       <c r="B62" s="15" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>375</v>
+        <v>359</v>
       </c>
       <c r="F62" s="2">
         <v>4</v>
@@ -6594,18 +6648,18 @@
       </c>
       <c r="K62" s="2"/>
     </row>
-    <row r="63" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="63" spans="2:11">
       <c r="B63" s="15" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>375</v>
+        <v>359</v>
       </c>
       <c r="F63" s="2">
         <v>3</v>
@@ -6620,18 +6674,18 @@
       </c>
       <c r="K63" s="2"/>
     </row>
-    <row r="64" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="64" spans="2:11">
       <c r="B64" s="15" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>375</v>
+        <v>359</v>
       </c>
       <c r="F64" s="2">
         <v>4</v>
@@ -6646,18 +6700,18 @@
       </c>
       <c r="K64" s="2"/>
     </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="65" spans="2:11">
       <c r="B65" s="15" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>375</v>
+        <v>359</v>
       </c>
       <c r="F65" s="2">
         <v>2</v>
@@ -6672,18 +6726,18 @@
       </c>
       <c r="K65" s="2"/>
     </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="66" spans="2:11">
       <c r="B66" s="15" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>375</v>
+        <v>359</v>
       </c>
       <c r="F66" s="2">
         <v>3</v>
@@ -6698,18 +6752,18 @@
       </c>
       <c r="K66" s="2"/>
     </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="67" spans="2:11">
       <c r="B67" s="15" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>375</v>
+        <v>359</v>
       </c>
       <c r="F67" s="2">
         <v>3</v>
@@ -6724,18 +6778,18 @@
       </c>
       <c r="K67" s="2"/>
     </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="68" spans="2:11">
       <c r="B68" s="15" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>375</v>
+        <v>359</v>
       </c>
       <c r="F68" s="2">
         <v>3</v>
@@ -6750,18 +6804,18 @@
       </c>
       <c r="K68" s="2"/>
     </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="69" spans="2:11">
       <c r="B69" s="15" t="s">
-        <v>236</v>
+        <v>226</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>375</v>
+        <v>359</v>
       </c>
       <c r="F69" s="2">
         <v>4</v>
@@ -6776,18 +6830,18 @@
       </c>
       <c r="K69" s="2"/>
     </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="70" spans="2:11">
       <c r="B70" s="15" t="s">
-        <v>238</v>
+        <v>228</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>239</v>
+        <v>229</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>375</v>
+        <v>359</v>
       </c>
       <c r="F70" s="2">
         <v>3</v>
@@ -6802,18 +6856,18 @@
       </c>
       <c r="K70" s="2"/>
     </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="71" spans="2:11">
       <c r="B71" s="15" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>375</v>
+        <v>359</v>
       </c>
       <c r="F71" s="2">
         <v>3</v>
@@ -6828,18 +6882,18 @@
       </c>
       <c r="K71" s="2"/>
     </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="72" spans="2:11">
       <c r="B72" s="15" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>375</v>
+        <v>359</v>
       </c>
       <c r="F72" s="2">
         <v>4</v>
@@ -6854,18 +6908,18 @@
       </c>
       <c r="K72" s="2"/>
     </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="73" spans="2:11">
       <c r="B73" s="15" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>375</v>
+        <v>359</v>
       </c>
       <c r="F73" s="2">
         <v>3</v>
@@ -6880,18 +6934,18 @@
       </c>
       <c r="K73" s="2"/>
     </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="74" spans="2:11">
       <c r="B74" s="15" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>375</v>
+        <v>359</v>
       </c>
       <c r="F74" s="2">
         <v>3</v>
@@ -6906,18 +6960,18 @@
       </c>
       <c r="K74" s="2"/>
     </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="75" spans="2:11">
       <c r="B75" s="15" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>375</v>
+        <v>359</v>
       </c>
       <c r="F75" s="2">
         <v>4</v>
@@ -6932,18 +6986,18 @@
       </c>
       <c r="K75" s="2"/>
     </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="76" spans="2:11">
       <c r="B76" s="15" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>375</v>
+        <v>359</v>
       </c>
       <c r="F76" s="2">
         <v>4</v>
@@ -6958,18 +7012,18 @@
       </c>
       <c r="K76" s="2"/>
     </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="77" spans="2:11">
       <c r="B77" s="15" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>375</v>
+        <v>359</v>
       </c>
       <c r="F77" s="2">
         <v>4</v>
@@ -6984,18 +7038,18 @@
       </c>
       <c r="K77" s="2"/>
     </row>
-    <row r="78" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="78" spans="2:11">
       <c r="B78" s="15" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>375</v>
+        <v>359</v>
       </c>
       <c r="F78" s="2">
         <v>2</v>
@@ -7010,18 +7064,18 @@
       </c>
       <c r="K78" s="2"/>
     </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="79" spans="2:11">
       <c r="B79" s="15" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>375</v>
+        <v>359</v>
       </c>
       <c r="F79" s="2">
         <v>3</v>
@@ -7036,18 +7090,18 @@
       </c>
       <c r="K79" s="2"/>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="80" spans="2:11">
       <c r="B80" s="15" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>375</v>
+        <v>359</v>
       </c>
       <c r="F80" s="2">
         <v>3</v>
@@ -7062,18 +7116,18 @@
       </c>
       <c r="K80" s="2"/>
     </row>
-    <row r="81" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="81" spans="2:11">
       <c r="B81" s="15" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>375</v>
+        <v>359</v>
       </c>
       <c r="F81" s="2">
         <v>4</v>
@@ -7088,18 +7142,18 @@
       </c>
       <c r="K81" s="2"/>
     </row>
-    <row r="82" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="82" spans="2:11">
       <c r="B82" s="15" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>375</v>
+        <v>359</v>
       </c>
       <c r="F82" s="2">
         <v>4</v>
@@ -7114,18 +7168,18 @@
       </c>
       <c r="K82" s="2"/>
     </row>
-    <row r="83" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="83" spans="2:11">
       <c r="B83" s="15" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>375</v>
+        <v>359</v>
       </c>
       <c r="F83" s="2">
         <v>3</v>
@@ -7140,18 +7194,18 @@
       </c>
       <c r="K83" s="2"/>
     </row>
-    <row r="84" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="84" spans="2:11">
       <c r="B84" s="15" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>266</v>
+        <v>256</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>375</v>
+        <v>359</v>
       </c>
       <c r="F84" s="2">
         <v>4</v>
@@ -7166,18 +7220,18 @@
       </c>
       <c r="K84" s="2"/>
     </row>
-    <row r="85" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="85" spans="2:11">
       <c r="B85" s="15" t="s">
-        <v>267</v>
+        <v>257</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>268</v>
+        <v>258</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>375</v>
+        <v>359</v>
       </c>
       <c r="F85" s="2">
         <v>3</v>
@@ -7192,18 +7246,18 @@
       </c>
       <c r="K85" s="2"/>
     </row>
-    <row r="86" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="86" spans="2:11">
       <c r="B86" s="15" t="s">
-        <v>269</v>
+        <v>259</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>375</v>
+        <v>359</v>
       </c>
       <c r="F86" s="2">
         <v>3</v>
@@ -7218,18 +7272,18 @@
       </c>
       <c r="K86" s="2"/>
     </row>
-    <row r="87" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="87" spans="2:11">
       <c r="B87" s="15" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>590</v>
+        <v>570</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>595</v>
+        <v>574</v>
       </c>
       <c r="F87" s="2">
         <v>3</v>
@@ -7244,18 +7298,18 @@
       </c>
       <c r="K87" s="2"/>
     </row>
-    <row r="88" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="88" spans="2:11">
       <c r="B88" s="15" t="s">
-        <v>273</v>
+        <v>263</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>591</v>
+        <v>571</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>595</v>
+        <v>574</v>
       </c>
       <c r="F88" s="2">
         <v>3</v>
@@ -7270,18 +7324,18 @@
       </c>
       <c r="K88" s="2"/>
     </row>
-    <row r="89" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="89" spans="2:11">
       <c r="B89" s="15" t="s">
-        <v>275</v>
+        <v>265</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>592</v>
+        <v>572</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>595</v>
+        <v>574</v>
       </c>
       <c r="F89" s="2">
         <v>3</v>
@@ -7296,18 +7350,18 @@
       </c>
       <c r="K89" s="2"/>
     </row>
-    <row r="90" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="90" spans="2:11">
       <c r="B90" s="15" t="s">
-        <v>277</v>
+        <v>267</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>593</v>
+        <v>573</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>595</v>
+        <v>574</v>
       </c>
       <c r="F90" s="2">
         <v>3</v>
@@ -7322,18 +7376,18 @@
       </c>
       <c r="K90" s="2"/>
     </row>
-    <row r="91" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="91" spans="2:11">
       <c r="B91" s="15" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>375</v>
+        <v>359</v>
       </c>
       <c r="F91" s="2">
         <v>4</v>
@@ -7348,18 +7402,18 @@
       </c>
       <c r="K91" s="2"/>
     </row>
-    <row r="92" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="92" spans="2:11">
       <c r="B92" s="15" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>375</v>
+        <v>359</v>
       </c>
       <c r="F92" s="2">
         <v>3</v>
@@ -7374,18 +7428,18 @@
       </c>
       <c r="K92" s="2"/>
     </row>
-    <row r="93" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="93" spans="2:11">
       <c r="B93" s="15" t="s">
-        <v>283</v>
+        <v>273</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>276</v>
+        <v>266</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>375</v>
+        <v>359</v>
       </c>
       <c r="F93" s="2">
         <v>3</v>
@@ -7400,18 +7454,18 @@
       </c>
       <c r="K93" s="2"/>
     </row>
-    <row r="94" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="94" spans="2:11">
       <c r="B94" s="15" t="s">
-        <v>285</v>
+        <v>275</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>375</v>
+        <v>359</v>
       </c>
       <c r="F94" s="2">
         <v>3</v>
@@ -7426,18 +7480,18 @@
       </c>
       <c r="K94" s="2"/>
     </row>
-    <row r="95" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="95" spans="2:11">
       <c r="B95" s="15" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>375</v>
+        <v>359</v>
       </c>
       <c r="F95" s="2">
         <v>4</v>
@@ -7452,18 +7506,18 @@
       </c>
       <c r="K95" s="2"/>
     </row>
-    <row r="96" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="96" spans="2:11">
       <c r="B96" s="15" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>375</v>
+        <v>359</v>
       </c>
       <c r="F96" s="2">
         <v>3</v>
@@ -7478,18 +7532,18 @@
       </c>
       <c r="K96" s="2"/>
     </row>
-    <row r="97" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="97" spans="2:11">
       <c r="B97" s="15" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>375</v>
+        <v>359</v>
       </c>
       <c r="F97" s="2">
         <v>3</v>
@@ -7504,18 +7558,18 @@
       </c>
       <c r="K97" s="2"/>
     </row>
-    <row r="98" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="98" spans="2:11">
       <c r="B98" s="15" t="s">
-        <v>292</v>
+        <v>282</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>375</v>
+        <v>359</v>
       </c>
       <c r="F98" s="2">
         <v>3</v>
@@ -7530,18 +7584,18 @@
       </c>
       <c r="K98" s="2"/>
     </row>
-    <row r="99" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="99" spans="2:11">
       <c r="B99" s="15" t="s">
-        <v>295</v>
+        <v>285</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>375</v>
+        <v>359</v>
       </c>
       <c r="F99" s="2">
         <v>4</v>
@@ -7557,18 +7611,18 @@
       </c>
       <c r="K99" s="2"/>
     </row>
-    <row r="100" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="100" spans="2:11">
       <c r="B100" s="15" t="s">
-        <v>297</v>
+        <v>287</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>291</v>
+        <v>281</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>375</v>
+        <v>359</v>
       </c>
       <c r="F100" s="2">
         <v>2</v>
@@ -7584,18 +7638,18 @@
       </c>
       <c r="K100" s="2"/>
     </row>
-    <row r="101" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="101" spans="2:11">
       <c r="B101" s="15" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>293</v>
+        <v>283</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>375</v>
+        <v>359</v>
       </c>
       <c r="F101" s="2">
         <v>3</v>
@@ -7611,18 +7665,18 @@
       </c>
       <c r="K101" s="2"/>
     </row>
-    <row r="102" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="102" spans="2:11">
       <c r="B102" s="15" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>294</v>
+        <v>284</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>375</v>
+        <v>359</v>
       </c>
       <c r="F102" s="2">
         <v>3</v>
@@ -7638,18 +7692,18 @@
       </c>
       <c r="K102" s="2"/>
     </row>
-    <row r="103" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="103" spans="2:11">
       <c r="B103" s="15" t="s">
-        <v>303</v>
+        <v>293</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>296</v>
+        <v>286</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>375</v>
+        <v>359</v>
       </c>
       <c r="F103" s="2">
         <v>3</v>
@@ -7665,18 +7719,18 @@
       </c>
       <c r="K103" s="2"/>
     </row>
-    <row r="104" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="104" spans="2:11">
       <c r="B104" s="15" t="s">
-        <v>304</v>
+        <v>294</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>375</v>
+        <v>359</v>
       </c>
       <c r="F104" s="2">
         <v>4</v>
@@ -7692,18 +7746,18 @@
       </c>
       <c r="K104" s="2"/>
     </row>
-    <row r="105" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="105" spans="2:11">
       <c r="B105" s="15" t="s">
-        <v>306</v>
+        <v>296</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>375</v>
+        <v>359</v>
       </c>
       <c r="F105" s="2">
         <v>3</v>
@@ -7719,18 +7773,18 @@
       </c>
       <c r="K105" s="2"/>
     </row>
-    <row r="106" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="106" spans="2:11">
       <c r="B106" s="15" t="s">
-        <v>308</v>
+        <v>298</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>302</v>
+        <v>292</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>375</v>
+        <v>359</v>
       </c>
       <c r="F106" s="2">
         <v>3</v>
@@ -7746,18 +7800,18 @@
       </c>
       <c r="K106" s="2"/>
     </row>
-    <row r="107" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="107" spans="2:11">
       <c r="B107" s="15" t="s">
-        <v>310</v>
+        <v>300</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>375</v>
+        <v>359</v>
       </c>
       <c r="F107" s="2">
         <v>2</v>
@@ -7773,18 +7827,18 @@
       </c>
       <c r="K107" s="2"/>
     </row>
-    <row r="108" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="108" spans="2:11">
       <c r="B108" s="15" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>305</v>
+        <v>295</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>375</v>
+        <v>359</v>
       </c>
       <c r="F108" s="2">
         <v>3</v>
@@ -7800,18 +7854,18 @@
       </c>
       <c r="K108" s="2"/>
     </row>
-    <row r="109" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="109" spans="2:11">
       <c r="B109" s="15" t="s">
-        <v>314</v>
+        <v>304</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>307</v>
+        <v>297</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>375</v>
+        <v>359</v>
       </c>
       <c r="F109" s="2">
         <v>3</v>
@@ -7827,18 +7881,18 @@
       </c>
       <c r="K109" s="2"/>
     </row>
-    <row r="110" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="110" spans="2:11">
       <c r="B110" s="15" t="s">
-        <v>316</v>
+        <v>306</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>375</v>
+        <v>359</v>
       </c>
       <c r="F110" s="2">
         <v>3</v>
@@ -7854,18 +7908,18 @@
       </c>
       <c r="K110" s="2"/>
     </row>
-    <row r="111" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="111" spans="2:11">
       <c r="B111" s="15" t="s">
-        <v>318</v>
+        <v>308</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>311</v>
+        <v>301</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>375</v>
+        <v>359</v>
       </c>
       <c r="F111" s="2">
         <v>3</v>
@@ -7881,18 +7935,18 @@
       </c>
       <c r="K111" s="2"/>
     </row>
-    <row r="112" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="112" spans="2:11">
       <c r="B112" s="15" t="s">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>313</v>
+        <v>303</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>375</v>
+        <v>359</v>
       </c>
       <c r="F112" s="2">
         <v>3</v>
@@ -7908,18 +7962,18 @@
       </c>
       <c r="K112" s="2"/>
     </row>
-    <row r="113" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="113" spans="2:11">
       <c r="B113" s="15" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>375</v>
+        <v>359</v>
       </c>
       <c r="F113" s="2">
         <v>3</v>
@@ -7935,18 +7989,18 @@
       </c>
       <c r="K113" s="2"/>
     </row>
-    <row r="114" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="114" spans="2:11">
       <c r="B114" s="15" t="s">
-        <v>324</v>
+        <v>314</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>317</v>
+        <v>307</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>375</v>
+        <v>359</v>
       </c>
       <c r="F114" s="2">
         <v>3</v>
@@ -7962,18 +8016,18 @@
       </c>
       <c r="K114" s="2"/>
     </row>
-    <row r="115" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="115" spans="2:11">
       <c r="B115" s="15" t="s">
-        <v>326</v>
+        <v>316</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>319</v>
+        <v>309</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>375</v>
+        <v>359</v>
       </c>
       <c r="F115" s="2">
         <v>3</v>
@@ -7989,18 +8043,18 @@
       </c>
       <c r="K115" s="2"/>
     </row>
-    <row r="116" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="116" spans="2:11">
       <c r="B116" s="15" t="s">
-        <v>328</v>
+        <v>318</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>321</v>
+        <v>311</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>375</v>
+        <v>359</v>
       </c>
       <c r="F116" s="2">
         <v>3</v>
@@ -8016,18 +8070,18 @@
       </c>
       <c r="K116" s="2"/>
     </row>
-    <row r="117" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="117" spans="2:11">
       <c r="B117" s="15" t="s">
-        <v>330</v>
+        <v>320</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>375</v>
+        <v>359</v>
       </c>
       <c r="F117" s="2">
         <v>3</v>
@@ -8043,18 +8097,18 @@
       </c>
       <c r="K117" s="2"/>
     </row>
-    <row r="118" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="118" spans="2:11">
       <c r="B118" s="15" t="s">
-        <v>332</v>
+        <v>322</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>325</v>
+        <v>315</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>375</v>
+        <v>359</v>
       </c>
       <c r="F118" s="2">
         <v>3</v>
@@ -8070,18 +8124,18 @@
       </c>
       <c r="K118" s="2"/>
     </row>
-    <row r="119" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="119" spans="2:11">
       <c r="B119" s="15" t="s">
-        <v>334</v>
+        <v>324</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>327</v>
+        <v>317</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>375</v>
+        <v>359</v>
       </c>
       <c r="F119" s="2">
         <v>3</v>
@@ -8097,18 +8151,18 @@
       </c>
       <c r="K119" s="2"/>
     </row>
-    <row r="120" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="120" spans="2:11">
       <c r="B120" s="15" t="s">
-        <v>336</v>
+        <v>326</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>329</v>
+        <v>319</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>375</v>
+        <v>359</v>
       </c>
       <c r="F120" s="2">
         <v>3</v>
@@ -8124,18 +8178,18 @@
       </c>
       <c r="K120" s="2"/>
     </row>
-    <row r="121" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="121" spans="2:11">
       <c r="B121" s="15" t="s">
-        <v>338</v>
+        <v>328</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>331</v>
+        <v>321</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>375</v>
+        <v>359</v>
       </c>
       <c r="F121" s="2">
         <v>3</v>
@@ -8151,18 +8205,18 @@
       </c>
       <c r="K121" s="2"/>
     </row>
-    <row r="122" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="122" spans="2:11">
       <c r="B122" s="15" t="s">
-        <v>340</v>
+        <v>330</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>375</v>
+        <v>359</v>
       </c>
       <c r="F122" s="2">
         <v>3</v>
@@ -8178,18 +8232,18 @@
       </c>
       <c r="K122" s="2"/>
     </row>
-    <row r="123" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="123" spans="2:11">
       <c r="B123" s="15" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>335</v>
+        <v>325</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>375</v>
+        <v>359</v>
       </c>
       <c r="F123" s="2">
         <v>3</v>
@@ -8205,18 +8259,18 @@
       </c>
       <c r="K123" s="2"/>
     </row>
-    <row r="124" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="124" spans="2:11">
       <c r="B124" s="15" t="s">
-        <v>344</v>
+        <v>334</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>337</v>
+        <v>327</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>375</v>
+        <v>359</v>
       </c>
       <c r="F124" s="2">
         <v>3</v>
@@ -8232,18 +8286,18 @@
       </c>
       <c r="K124" s="2"/>
     </row>
-    <row r="125" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="125" spans="2:11">
       <c r="B125" s="15" t="s">
-        <v>346</v>
+        <v>336</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>339</v>
+        <v>329</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>375</v>
+        <v>359</v>
       </c>
       <c r="F125" s="2">
         <v>3</v>
@@ -8259,18 +8313,18 @@
       </c>
       <c r="K125" s="2"/>
     </row>
-    <row r="126" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="126" spans="2:11">
       <c r="B126" s="15" t="s">
-        <v>348</v>
+        <v>338</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>341</v>
+        <v>331</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>375</v>
+        <v>359</v>
       </c>
       <c r="F126" s="2">
         <v>3</v>
@@ -8286,18 +8340,18 @@
       </c>
       <c r="K126" s="2"/>
     </row>
-    <row r="127" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="127" spans="2:11">
       <c r="B127" s="15" t="s">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>343</v>
+        <v>333</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>375</v>
+        <v>359</v>
       </c>
       <c r="F127" s="2">
         <v>3</v>
@@ -8313,18 +8367,18 @@
       </c>
       <c r="K127" s="2"/>
     </row>
-    <row r="128" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="128" spans="2:11">
       <c r="B128" s="15" t="s">
-        <v>352</v>
+        <v>342</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>345</v>
+        <v>335</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>375</v>
+        <v>359</v>
       </c>
       <c r="F128" s="2">
         <v>3</v>
@@ -8340,18 +8394,18 @@
       </c>
       <c r="K128" s="2"/>
     </row>
-    <row r="129" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="129" spans="2:11">
       <c r="B129" s="15" t="s">
-        <v>354</v>
+        <v>344</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>347</v>
+        <v>337</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>375</v>
+        <v>359</v>
       </c>
       <c r="F129" s="2">
         <v>3</v>
@@ -8367,18 +8421,18 @@
       </c>
       <c r="K129" s="2"/>
     </row>
-    <row r="130" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="130" spans="2:11">
       <c r="B130" s="15" t="s">
-        <v>355</v>
+        <v>345</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>349</v>
+        <v>339</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>375</v>
+        <v>359</v>
       </c>
       <c r="F130" s="2">
         <v>3</v>
@@ -8394,18 +8448,18 @@
       </c>
       <c r="K130" s="2"/>
     </row>
-    <row r="131" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="131" spans="2:11">
       <c r="B131" s="15" t="s">
-        <v>357</v>
+        <v>347</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>351</v>
+        <v>341</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>375</v>
+        <v>359</v>
       </c>
       <c r="F131" s="2">
         <v>3</v>
@@ -8421,18 +8475,18 @@
       </c>
       <c r="K131" s="2"/>
     </row>
-    <row r="132" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="132" spans="2:11">
       <c r="B132" s="15" t="s">
-        <v>359</v>
+        <v>349</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>353</v>
+        <v>343</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>375</v>
+        <v>359</v>
       </c>
       <c r="F132" s="2">
         <v>3</v>
@@ -8448,18 +8502,18 @@
       </c>
       <c r="K132" s="2"/>
     </row>
-    <row r="133" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="133" spans="2:11">
       <c r="B133" s="15" t="s">
-        <v>361</v>
+        <v>351</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>356</v>
+        <v>346</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>375</v>
+        <v>359</v>
       </c>
       <c r="F133" s="2">
         <v>3</v>
@@ -8475,18 +8529,18 @@
       </c>
       <c r="K133" s="2"/>
     </row>
-    <row r="134" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="134" spans="2:11">
       <c r="B134" s="15" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>358</v>
+        <v>348</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>375</v>
+        <v>359</v>
       </c>
       <c r="F134" s="2">
         <v>3</v>
@@ -8502,18 +8556,18 @@
       </c>
       <c r="K134" s="2"/>
     </row>
-    <row r="135" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="135" spans="2:11">
       <c r="B135" s="15" t="s">
-        <v>364</v>
+        <v>354</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>360</v>
+        <v>350</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>375</v>
+        <v>359</v>
       </c>
       <c r="F135" s="2">
         <v>3</v>
@@ -8529,18 +8583,18 @@
       </c>
       <c r="K135" s="2"/>
     </row>
-    <row r="136" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="136" spans="2:11">
       <c r="B136" s="15" t="s">
-        <v>366</v>
+        <v>356</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>363</v>
+        <v>353</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>375</v>
+        <v>359</v>
       </c>
       <c r="F136" s="2">
         <v>3</v>
@@ -8556,18 +8610,18 @@
       </c>
       <c r="K136" s="2"/>
     </row>
-    <row r="137" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="137" spans="2:11">
       <c r="B137" s="15" t="s">
-        <v>587</v>
+        <v>567</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>365</v>
+        <v>355</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>375</v>
+        <v>359</v>
       </c>
       <c r="F137" s="2">
         <v>5</v>
@@ -8583,18 +8637,18 @@
       </c>
       <c r="K137" s="2"/>
     </row>
-    <row r="138" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="138" spans="2:11">
       <c r="B138" s="15" t="s">
-        <v>588</v>
+        <v>568</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>363</v>
+        <v>353</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>375</v>
+        <v>359</v>
       </c>
       <c r="F138" s="2">
         <v>3</v>
@@ -8610,18 +8664,18 @@
       </c>
       <c r="K138" s="2"/>
     </row>
-    <row r="139" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="139" spans="2:11">
       <c r="B139" s="15" t="s">
-        <v>589</v>
+        <v>569</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>365</v>
+        <v>355</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>375</v>
+        <v>359</v>
       </c>
       <c r="F139" s="2">
         <v>5</v>
@@ -8637,7 +8691,7 @@
       </c>
       <c r="K139" s="2"/>
     </row>
-    <row r="140" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="140" spans="2:11">
       <c r="B140" s="31"/>
       <c r="C140" s="30"/>
       <c r="D140" s="30"/>
@@ -8649,7 +8703,7 @@
       <c r="J140" s="30"/>
       <c r="K140" s="32"/>
     </row>
-    <row r="141" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="141" spans="2:11">
       <c r="B141" s="31"/>
       <c r="C141" s="30"/>
       <c r="D141" s="30"/>
@@ -8661,7 +8715,7 @@
       <c r="J141" s="30"/>
       <c r="K141" s="32"/>
     </row>
-    <row r="142" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="142" spans="2:11">
       <c r="B142" s="31"/>
       <c r="C142" s="30"/>
       <c r="D142" s="30"/>
@@ -8673,7 +8727,7 @@
       <c r="J142" s="30"/>
       <c r="K142" s="32"/>
     </row>
-    <row r="143" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="143" spans="2:11">
       <c r="B143" s="31"/>
       <c r="C143" s="30"/>
       <c r="D143" s="30"/>
@@ -8713,46 +8767,46 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B2:G22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="3" width="13" customWidth="1"/>
     <col min="7" max="7" width="11.875" customWidth="1"/>
     <col min="14" max="14" width="11.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:7">
       <c r="B2" s="14" t="s">
-        <v>367</v>
+        <v>85</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>368</v>
+        <v>582</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>369</v>
+        <v>583</v>
       </c>
       <c r="E2" s="14" t="s">
-        <v>370</v>
+        <v>584</v>
       </c>
       <c r="F2" s="14" t="s">
-        <v>371</v>
+        <v>585</v>
       </c>
       <c r="G2" s="14" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.15">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7">
       <c r="B3" s="15" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="C3" s="2">
         <v>7</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>373</v>
+        <v>357</v>
       </c>
       <c r="E3" s="2">
         <v>2</v>
@@ -8761,18 +8815,18 @@
         <v>20</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.15">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7">
       <c r="B4" s="15" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="C4" s="2">
         <v>8</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>373</v>
+        <v>357</v>
       </c>
       <c r="E4" s="2">
         <v>2</v>
@@ -8781,18 +8835,18 @@
         <v>20</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.15">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7">
       <c r="B5" s="15" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="C5" s="2">
         <v>9</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>373</v>
+        <v>357</v>
       </c>
       <c r="E5" s="2">
         <v>2</v>
@@ -8801,18 +8855,18 @@
         <v>40</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.15">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7">
       <c r="B6" s="15" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="C6" s="2">
         <v>10</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>373</v>
+        <v>357</v>
       </c>
       <c r="E6" s="2">
         <v>2</v>
@@ -8821,18 +8875,18 @@
         <v>40</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.15">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7">
       <c r="B7" s="15" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="C7" s="2">
         <v>11</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>373</v>
+        <v>357</v>
       </c>
       <c r="E7" s="2">
         <v>2</v>
@@ -8841,18 +8895,18 @@
         <v>40</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.15">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7">
       <c r="B8" s="15" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="C8" s="2">
         <v>12</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>373</v>
+        <v>357</v>
       </c>
       <c r="E8" s="2">
         <v>2</v>
@@ -8861,18 +8915,18 @@
         <v>40</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.15">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7">
       <c r="B9" s="15" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="C9" s="2">
         <v>13</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>373</v>
+        <v>357</v>
       </c>
       <c r="E9" s="2">
         <v>2</v>
@@ -8881,18 +8935,18 @@
         <v>40</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.15">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7">
       <c r="B10" s="15" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="C10" s="2">
         <v>14</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>373</v>
+        <v>357</v>
       </c>
       <c r="E10" s="2">
         <v>2</v>
@@ -8901,18 +8955,18 @@
         <v>40</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.15">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7">
       <c r="B11" s="15" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="C11" s="2">
         <v>15</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>373</v>
+        <v>357</v>
       </c>
       <c r="E11" s="2">
         <v>2</v>
@@ -8921,18 +8975,18 @@
         <v>40</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.15">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7">
       <c r="B12" s="15" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>376</v>
+        <v>360</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>373</v>
+        <v>357</v>
       </c>
       <c r="E12" s="2">
         <v>2</v>
@@ -8941,18 +8995,18 @@
         <v>30</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.15">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7">
       <c r="B13" s="15" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>378</v>
+        <v>362</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>373</v>
+        <v>357</v>
       </c>
       <c r="E13" s="2">
         <v>2</v>
@@ -8961,18 +9015,18 @@
         <v>30</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.15">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7">
       <c r="B14" s="15" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>379</v>
+        <v>363</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>373</v>
+        <v>357</v>
       </c>
       <c r="E14" s="2">
         <v>2</v>
@@ -8981,18 +9035,18 @@
         <v>30</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.15">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7">
       <c r="B15" s="15" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>380</v>
+        <v>364</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>373</v>
+        <v>357</v>
       </c>
       <c r="E15" s="2">
         <v>2</v>
@@ -9001,10 +9055,10 @@
         <v>40</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.15">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7">
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
@@ -9012,7 +9066,7 @@
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:7">
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
@@ -9020,7 +9074,7 @@
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:7">
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
@@ -9028,7 +9082,7 @@
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:7">
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
@@ -9036,7 +9090,7 @@
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:7">
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
@@ -9044,7 +9098,7 @@
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:7">
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
@@ -9052,7 +9106,7 @@
       <c r="F21" s="4"/>
       <c r="G21" s="4"/>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:7">
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
@@ -9070,58 +9124,58 @@
   <dimension ref="B2:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="22.375" customWidth="1"/>
-    <col min="3" max="3" width="25.125" customWidth="1"/>
+    <col min="3" max="3" width="33.375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:4">
       <c r="B2" s="5" t="s">
-        <v>367</v>
+        <v>85</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>92</v>
+        <v>578</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.15">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4">
       <c r="B3" s="2">
         <v>1</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>381</v>
+        <v>365</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.15">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4">
       <c r="B4" s="2">
         <v>2</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>382</v>
+        <v>207</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.15">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4">
       <c r="B5" s="2">
         <v>3</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>384</v>
+        <v>279</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
     </row>
   </sheetData>
@@ -9134,10 +9188,10 @@
   <dimension ref="B2:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="13.625" customWidth="1"/>
     <col min="2" max="2" width="14.625" customWidth="1"/>
@@ -9149,26 +9203,26 @@
     <col min="8" max="8" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:6">
       <c r="B2" s="7" t="s">
-        <v>385</v>
+        <v>367</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>386</v>
+        <v>368</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>387</v>
+        <v>369</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>388</v>
+        <v>370</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.15">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6">
       <c r="B3" s="8" t="s">
-        <v>390</v>
+        <v>372</v>
       </c>
       <c r="C3" s="4">
         <v>1</v>
@@ -9183,7 +9237,7 @@
         <v>0.104166666666667</v>
       </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:6">
       <c r="C4" s="4">
         <v>2</v>
       </c>
@@ -9197,7 +9251,7 @@
         <v>0.104166666666667</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:6">
       <c r="C5" s="4">
         <v>3</v>
       </c>
@@ -9211,31 +9265,31 @@
         <v>0.104166666666667</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:6">
       <c r="D6" s="10"/>
       <c r="E6" s="10"/>
       <c r="F6" s="10"/>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:6">
       <c r="B7" s="11" t="s">
-        <v>385</v>
+        <v>367</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>386</v>
+        <v>368</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>387</v>
+        <v>369</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>388</v>
+        <v>370</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.15">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6">
       <c r="B8" s="8" t="s">
-        <v>391</v>
+        <v>373</v>
       </c>
       <c r="C8" s="4">
         <v>1</v>
@@ -9250,9 +9304,9 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:6">
       <c r="B9" s="8" t="s">
-        <v>392</v>
+        <v>374</v>
       </c>
       <c r="C9" s="4">
         <v>2</v>
@@ -9267,7 +9321,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:6">
       <c r="C10" s="4">
         <v>3</v>
       </c>
@@ -9281,7 +9335,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:6">
       <c r="C11" s="4">
         <v>4</v>
       </c>
@@ -9295,9 +9349,9 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:6">
       <c r="B15" s="13" t="s">
-        <v>393</v>
+        <v>375</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="13"/>
@@ -9314,37 +9368,37 @@
   <dimension ref="B2:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="49.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:3">
       <c r="B2" s="5" t="s">
-        <v>394</v>
+        <v>376</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.15">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3">
       <c r="B3" s="6" t="s">
-        <v>396</v>
+        <v>378</v>
       </c>
       <c r="C3" s="4"/>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:3">
       <c r="B4" s="6" t="s">
-        <v>397</v>
+        <v>379</v>
       </c>
       <c r="C4" s="4"/>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:3">
       <c r="B5" s="6" t="s">
-        <v>398</v>
+        <v>380</v>
       </c>
       <c r="C5" s="4"/>
     </row>
@@ -9358,56 +9412,56 @@
   <dimension ref="B2:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="3" width="11.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:5">
       <c r="B2" s="1" t="s">
-        <v>399</v>
+        <v>381</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>400</v>
+        <v>382</v>
       </c>
       <c r="E2" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5">
+      <c r="B3" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B3" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:5">
       <c r="B4" s="2" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.15">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5">
       <c r="B5" s="2" t="s">
-        <v>402</v>
+        <v>384</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>403</v>
+        <v>385</v>
       </c>
     </row>
   </sheetData>
